--- a/Bundle/Ungheni/PT_Ungheni.xlsx
+++ b/Bundle/Ungheni/PT_Ungheni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Red-Nord\10 Biroul dispecerului - PySide2_copie\Bundle\Ungheni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\GitHub\Dispatcher_Bureau\Bundle\Ungheni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E9284-70BC-4FAC-B7F0-E542BDCA8314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BACB4B5-BA06-4E30-82AC-4CD5C37D9374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="1470" windowWidth="25320" windowHeight="14115" xr2:uid="{9A396AB9-6E7F-4978-AFCE-8C60F5766EE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A396AB9-6E7F-4978-AFCE-8C60F5766EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="PT_Ungheni" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="903">
   <si>
     <t>PT568CT1</t>
   </si>
@@ -2111,84 +2111,12 @@
     <t>s.Coşeni</t>
   </si>
   <si>
-    <t>str.Industriala</t>
-  </si>
-  <si>
-    <t>str.O.Ungureanu</t>
-  </si>
-  <si>
-    <t>str.Decebal</t>
-  </si>
-  <si>
-    <t>str.I.Creanga</t>
-  </si>
-  <si>
-    <t>str.Ungureanu</t>
-  </si>
-  <si>
-    <t>str. Industriala</t>
-  </si>
-  <si>
-    <t>str. G. Crestiuc</t>
-  </si>
-  <si>
     <t>s.Zagarancea</t>
   </si>
   <si>
     <t>s.Semeni</t>
   </si>
   <si>
-    <t>str.Bernardazzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.Crestiuc </t>
-  </si>
-  <si>
-    <t>str.G.Ureche</t>
-  </si>
-  <si>
-    <t>str.Al.cel Bun</t>
-  </si>
-  <si>
-    <t>str.Hajdeu</t>
-  </si>
-  <si>
-    <t>str.Orangareii</t>
-  </si>
-  <si>
-    <t>str.M.Eminescu</t>
-  </si>
-  <si>
-    <t>str.Nationala</t>
-  </si>
-  <si>
-    <t>str. Lacului</t>
-  </si>
-  <si>
-    <t>str.St. Cel Mare</t>
-  </si>
-  <si>
-    <t>str.Unirii</t>
-  </si>
-  <si>
-    <t>str.Valenilor</t>
-  </si>
-  <si>
-    <t>str.Boico</t>
-  </si>
-  <si>
-    <t>str.Creanga</t>
-  </si>
-  <si>
-    <t>s.Crestiuc</t>
-  </si>
-  <si>
-    <t>str.Crestiuc</t>
-  </si>
-  <si>
-    <t>str.G.Meniuc</t>
-  </si>
-  <si>
     <t>s.Elizavetovca</t>
   </si>
   <si>
@@ -2204,48 +2132,6 @@
     <t>s.Vulpesti</t>
   </si>
   <si>
-    <t>str.Iasului</t>
-  </si>
-  <si>
-    <t>str.Gradinilor</t>
-  </si>
-  <si>
-    <t>str.Livezilor</t>
-  </si>
-  <si>
-    <t>str.Romana</t>
-  </si>
-  <si>
-    <t>str.B.Lautaru</t>
-  </si>
-  <si>
-    <t>str.V.Lupu</t>
-  </si>
-  <si>
-    <t>str.M.Viteazu</t>
-  </si>
-  <si>
-    <t>str.T.Arghezi</t>
-  </si>
-  <si>
-    <t>str.Putna</t>
-  </si>
-  <si>
-    <t>str.G.Asachi</t>
-  </si>
-  <si>
-    <t>str.V.Alexandrii</t>
-  </si>
-  <si>
-    <t>str. Stefan Cel Mare</t>
-  </si>
-  <si>
-    <t>str.Ungureanu 2A</t>
-  </si>
-  <si>
-    <t>str.Balteni</t>
-  </si>
-  <si>
     <t>s. Zagarancea</t>
   </si>
   <si>
@@ -2315,78 +2201,18 @@
     <t>s.Frasinesti</t>
   </si>
   <si>
-    <t>str. Nationala</t>
-  </si>
-  <si>
     <t>s.Rezina</t>
   </si>
   <si>
-    <t>str.Brincus</t>
-  </si>
-  <si>
-    <t>str.Viilor</t>
-  </si>
-  <si>
     <t>s.Cetireni</t>
   </si>
   <si>
-    <t>str.Naţională</t>
-  </si>
-  <si>
-    <t>UN_str.Romana</t>
-  </si>
-  <si>
-    <t>UN_str.M.Eminescu</t>
-  </si>
-  <si>
-    <t>UN_str.Plamadeala</t>
-  </si>
-  <si>
-    <t>UN_str.Nationala</t>
-  </si>
-  <si>
-    <t>str. Burebista</t>
-  </si>
-  <si>
     <t xml:space="preserve">         </t>
   </si>
   <si>
-    <t>str. C.Sterea</t>
-  </si>
-  <si>
-    <t>str. G.Adam</t>
-  </si>
-  <si>
-    <t>str.Danuteni</t>
-  </si>
-  <si>
-    <t>str.N.Iorga</t>
-  </si>
-  <si>
-    <t>str.I.Neculce</t>
-  </si>
-  <si>
-    <t>str.Dosoftei</t>
-  </si>
-  <si>
-    <t>str.T.Sobolevschi</t>
-  </si>
-  <si>
-    <t>str.Luciafarul</t>
-  </si>
-  <si>
-    <t>str.P.Rares</t>
-  </si>
-  <si>
-    <t>str.Burebista</t>
-  </si>
-  <si>
     <t>s.Buzdugana de Sus</t>
   </si>
   <si>
-    <t>extravilanul car. Danuteni</t>
-  </si>
-  <si>
     <t>s.Floritoaia Veche</t>
   </si>
   <si>
@@ -2397,9 +2223,6 @@
   </si>
   <si>
     <t>s.Untesti</t>
-  </si>
-  <si>
-    <t>str.D.A.Teodorovici</t>
   </si>
   <si>
     <t>or.Ungheni</t>
@@ -2946,9 +2769,6 @@
   </si>
   <si>
     <t>PT36PD2 9</t>
-  </si>
-  <si>
-    <t>or. Ungheni</t>
   </si>
 </sst>
 </file>
@@ -3048,7 +2868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3074,6 +2894,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3396,7 +3231,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -3409,11 +3244,11 @@
       <c r="A1" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>650</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>651</v>
@@ -3438,11 +3273,11 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -3469,11 +3304,11 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3500,11 +3335,11 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D4" s="2">
         <v>81</v>
@@ -3533,11 +3368,11 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3564,11 +3399,11 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D6" s="2">
         <v>140</v>
@@ -3597,11 +3432,11 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3628,11 +3463,11 @@
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>654</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D8" s="2">
         <v>77</v>
@@ -3661,11 +3496,11 @@
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>654</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D9" s="2">
         <v>40</v>
@@ -3694,11 +3529,11 @@
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3725,11 +3560,11 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>655</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -3756,11 +3591,11 @@
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="12" t="s">
         <v>656</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D12" s="2">
         <v>151</v>
@@ -3787,11 +3622,11 @@
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="12" t="s">
         <v>657</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
@@ -3816,11 +3651,11 @@
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>658</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D14" s="7">
         <v>52</v>
@@ -3847,11 +3682,11 @@
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="12" t="s">
         <v>655</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3878,11 +3713,11 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="12" t="s">
         <v>655</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -3909,11 +3744,11 @@
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="12" t="s">
         <v>656</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D17" s="2">
         <v>151</v>
@@ -3942,11 +3777,11 @@
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="12" t="s">
         <v>659</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D18" s="2">
         <v>99</v>
@@ -3975,11 +3810,11 @@
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="12" t="s">
         <v>659</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D19" s="2">
         <v>32</v>
@@ -4008,11 +3843,11 @@
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="12" t="s">
         <v>660</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D20" s="2">
         <v>39</v>
@@ -4041,11 +3876,11 @@
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>655</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D21" s="2">
         <v>50</v>
@@ -4074,11 +3909,11 @@
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>661</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D22" s="2">
         <v>43</v>
@@ -4107,11 +3942,11 @@
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="12" t="s">
         <v>655</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D23" s="2">
         <v>47</v>
@@ -4140,11 +3975,11 @@
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="12" t="s">
         <v>657</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -4171,7 +4006,7 @@
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="14" t="s">
         <v>657</v>
       </c>
       <c r="C25" s="8"/>
@@ -4200,11 +4035,11 @@
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="14" t="s">
         <v>657</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
@@ -4231,11 +4066,11 @@
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>657</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D27" s="2">
         <v>64</v>
@@ -4264,11 +4099,11 @@
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="12" t="s">
         <v>657</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D28" s="2">
         <v>56</v>
@@ -4297,11 +4132,11 @@
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="12" t="s">
         <v>657</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D29" s="2">
         <v>119</v>
@@ -4330,11 +4165,11 @@
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="12" t="s">
         <v>657</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D30" s="2">
         <v>61</v>
@@ -4363,11 +4198,11 @@
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D31" s="2">
         <v>118</v>
@@ -4396,11 +4231,11 @@
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -4427,11 +4262,11 @@
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D33" s="2">
         <v>20</v>
@@ -4460,11 +4295,11 @@
       <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D34" s="2">
         <v>9</v>
@@ -4493,11 +4328,11 @@
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D35" s="2">
         <v>122</v>
@@ -4526,11 +4361,11 @@
       <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
       <c r="D36" s="2">
         <v>105</v>
@@ -4559,11 +4394,11 @@
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -4590,11 +4425,11 @@
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4621,11 +4456,11 @@
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12" t="s">
         <v>662</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -4652,11 +4487,11 @@
       <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="12" t="s">
         <v>662</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D40" s="2">
         <v>97</v>
@@ -4685,11 +4520,11 @@
       <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="12" t="s">
         <v>662</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D41" s="2">
         <v>82</v>
@@ -4718,11 +4553,11 @@
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="12" t="s">
         <v>662</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -4749,11 +4584,11 @@
       <c r="A43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="12" t="s">
         <v>662</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -4780,11 +4615,11 @@
       <c r="A44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="12" t="s">
         <v>662</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -4811,11 +4646,11 @@
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="12" t="s">
         <v>662</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -4842,11 +4677,11 @@
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D46" s="2">
         <v>175</v>
@@ -4875,11 +4710,11 @@
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D47" s="2">
         <v>219</v>
@@ -4908,11 +4743,11 @@
       <c r="A48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D48" s="2">
         <v>138</v>
@@ -4941,11 +4776,11 @@
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D49" s="2">
         <v>88</v>
@@ -4974,11 +4809,11 @@
       <c r="A50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D50" s="2">
         <v>123</v>
@@ -5007,11 +4842,11 @@
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D51" s="2">
         <v>98</v>
@@ -5040,11 +4875,11 @@
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D52" s="2">
         <v>64</v>
@@ -5073,11 +4908,11 @@
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D53" s="2">
         <v>54</v>
@@ -5106,11 +4941,11 @@
       <c r="A54" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D54" s="2">
         <v>72</v>
@@ -5139,11 +4974,11 @@
       <c r="A55" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>807</v>
+        <v>748</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -5170,11 +5005,11 @@
       <c r="A56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>808</v>
+        <v>749</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -5201,11 +5036,11 @@
       <c r="A57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D57" s="2">
         <v>26</v>
@@ -5234,11 +5069,11 @@
       <c r="A58" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D58" s="2">
         <v>54</v>
@@ -5267,11 +5102,11 @@
       <c r="A59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D59" s="2">
         <v>33</v>
@@ -5300,11 +5135,11 @@
       <c r="A60" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D60" s="2">
         <v>54</v>
@@ -5333,11 +5168,11 @@
       <c r="A61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D61" s="2">
         <v>39</v>
@@ -5366,11 +5201,11 @@
       <c r="A62" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -5397,11 +5232,11 @@
       <c r="A63" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D63" s="2">
         <v>94</v>
@@ -5430,11 +5265,11 @@
       <c r="A64" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>809</v>
+        <v>750</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -5461,11 +5296,11 @@
       <c r="A65" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>810</v>
+        <v>751</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -5492,11 +5327,11 @@
       <c r="A66" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>809</v>
+        <v>750</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -5523,11 +5358,11 @@
       <c r="A67" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D67" s="2">
         <v>87</v>
@@ -5556,11 +5391,11 @@
       <c r="A68" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -5587,11 +5422,11 @@
       <c r="A69" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="12" t="s">
         <v>664</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
@@ -5618,11 +5453,11 @@
       <c r="A70" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="12" t="s">
         <v>665</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -5649,11 +5484,11 @@
       <c r="A71" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="12" t="s">
         <v>666</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D71" s="2">
         <v>120</v>
@@ -5682,11 +5517,11 @@
       <c r="A72" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="12" t="s">
         <v>666</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D72" s="2">
         <v>69</v>
@@ -5715,11 +5550,11 @@
       <c r="A73" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="12" t="s">
         <v>667</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -5746,11 +5581,11 @@
       <c r="A74" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="12" t="s">
         <v>667</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -5777,11 +5612,11 @@
       <c r="A75" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="12" t="s">
         <v>667</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="D75" s="2">
         <v>0</v>
@@ -5808,11 +5643,11 @@
       <c r="A76" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="12" t="s">
         <v>667</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>814</v>
+        <v>755</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -5839,11 +5674,11 @@
       <c r="A77" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="12" t="s">
         <v>667</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D77" s="2">
         <v>121</v>
@@ -5872,11 +5707,11 @@
       <c r="A78" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="12" t="s">
         <v>667</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D78" s="2">
         <v>182</v>
@@ -5905,11 +5740,11 @@
       <c r="A79" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="12" t="s">
         <v>665</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D79" s="2">
         <v>163</v>
@@ -5938,11 +5773,11 @@
       <c r="A80" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="12" t="s">
         <v>665</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D80" s="2">
         <v>44</v>
@@ -5971,11 +5806,11 @@
       <c r="A81" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="12" t="s">
         <v>668</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D81" s="2">
         <v>54</v>
@@ -6004,11 +5839,11 @@
       <c r="A82" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="12" t="s">
         <v>668</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D82" s="2">
         <v>68</v>
@@ -6037,11 +5872,11 @@
       <c r="A83" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="12" t="s">
         <v>668</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -6068,11 +5903,11 @@
       <c r="A84" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="12" t="s">
         <v>668</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D84" s="2">
         <v>135</v>
@@ -6100,11 +5935,11 @@
       <c r="A85" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="12" t="s">
         <v>668</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D85" s="2">
         <v>118</v>
@@ -6133,11 +5968,11 @@
       <c r="A86" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="12" t="s">
         <v>668</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D86" s="2">
         <v>54</v>
@@ -6166,11 +6001,11 @@
       <c r="A87" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="14" t="s">
         <v>668</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>815</v>
+        <v>756</v>
       </c>
       <c r="D87" s="7">
         <v>0</v>
@@ -6197,11 +6032,11 @@
       <c r="A88" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="12" t="s">
         <v>669</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D88" s="2">
         <v>105</v>
@@ -6230,11 +6065,11 @@
       <c r="A89" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="12" t="s">
         <v>670</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>816</v>
+        <v>757</v>
       </c>
       <c r="D89" s="2">
         <v>0</v>
@@ -6261,11 +6096,11 @@
       <c r="A90" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="12" t="s">
         <v>670</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>817</v>
+        <v>758</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -6292,11 +6127,11 @@
       <c r="A91" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="12" t="s">
         <v>670</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="D91" s="2">
         <v>0</v>
@@ -6323,11 +6158,11 @@
       <c r="A92" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="12" t="s">
         <v>670</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
@@ -6354,11 +6189,11 @@
       <c r="A93" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="12" t="s">
         <v>670</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
@@ -6385,11 +6220,11 @@
       <c r="A94" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="12" t="s">
         <v>670</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D94" s="2">
         <v>89</v>
@@ -6418,11 +6253,11 @@
       <c r="A95" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="12" t="s">
         <v>670</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D95" s="2">
         <v>105</v>
@@ -6451,11 +6286,11 @@
       <c r="A96" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="12" t="s">
         <v>670</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D96" s="2">
         <v>46</v>
@@ -6484,11 +6319,11 @@
       <c r="A97" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="12" t="s">
         <v>670</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D97" s="2">
         <v>133</v>
@@ -6517,11 +6352,11 @@
       <c r="A98" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="12" t="s">
         <v>671</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D98" s="2">
         <v>46</v>
@@ -6550,11 +6385,11 @@
       <c r="A99" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="12" t="s">
         <v>671</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D99" s="2">
         <v>25</v>
@@ -6583,11 +6418,11 @@
       <c r="A100" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="12" t="s">
         <v>671</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D100" s="2">
         <v>42</v>
@@ -6616,11 +6451,11 @@
       <c r="A101" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="12" t="s">
         <v>671</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D101" s="2">
         <v>0</v>
@@ -6647,11 +6482,11 @@
       <c r="A102" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="12" t="s">
         <v>671</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>818</v>
+        <v>759</v>
       </c>
       <c r="D102" s="2">
         <v>127</v>
@@ -6680,11 +6515,11 @@
       <c r="A103" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="12" t="s">
         <v>671</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D103" s="2">
         <v>118</v>
@@ -6713,11 +6548,11 @@
       <c r="A104" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="12" t="s">
         <v>671</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D104" s="2">
         <v>77</v>
@@ -6746,11 +6581,11 @@
       <c r="A105" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="12" t="s">
         <v>653</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>819</v>
+        <v>760</v>
       </c>
       <c r="D105" s="2">
         <v>0</v>
@@ -6777,11 +6612,11 @@
       <c r="A106" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="12" t="s">
         <v>672</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D106" s="2">
         <v>73</v>
@@ -6810,11 +6645,11 @@
       <c r="A107" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="12" t="s">
         <v>672</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D107" s="2">
         <v>201</v>
@@ -6843,11 +6678,11 @@
       <c r="A108" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="12" t="s">
         <v>672</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D108" s="2">
         <v>180</v>
@@ -6876,11 +6711,11 @@
       <c r="A109" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="12" t="s">
         <v>672</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D109" s="2">
         <v>154</v>
@@ -6909,11 +6744,11 @@
       <c r="A110" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="12" t="s">
         <v>672</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D110" s="2">
         <v>154</v>
@@ -6942,11 +6777,11 @@
       <c r="A111" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="12" t="s">
         <v>672</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="D111" s="2">
         <v>0</v>
@@ -6973,11 +6808,11 @@
       <c r="A112" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="12" t="s">
         <v>673</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>820</v>
+        <v>761</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -7004,11 +6839,11 @@
       <c r="A113" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="12" t="s">
         <v>673</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>821</v>
+        <v>762</v>
       </c>
       <c r="D113" s="2">
         <v>0</v>
@@ -7035,11 +6870,11 @@
       <c r="A114" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="12" t="s">
         <v>673</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>822</v>
+        <v>763</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
@@ -7066,11 +6901,11 @@
       <c r="A115" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="12" t="s">
         <v>673</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>823</v>
+        <v>764</v>
       </c>
       <c r="D115" s="2">
         <v>0</v>
@@ -7097,11 +6932,11 @@
       <c r="A116" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="12" t="s">
         <v>674</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D116" s="2">
         <v>67</v>
@@ -7130,11 +6965,11 @@
       <c r="A117" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="12" t="s">
         <v>675</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D117" s="2">
         <v>0</v>
@@ -7161,7 +6996,7 @@
       <c r="A118" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2">
         <v>0</v>
@@ -7188,11 +7023,11 @@
       <c r="A119" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="12" t="s">
         <v>676</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>824</v>
+        <v>765</v>
       </c>
       <c r="D119" s="2">
         <v>0</v>
@@ -7219,11 +7054,11 @@
       <c r="A120" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="12" t="s">
         <v>676</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D120" s="2">
         <v>37</v>
@@ -7252,11 +7087,11 @@
       <c r="A121" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="12" t="s">
         <v>677</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D121" s="2">
         <v>21</v>
@@ -7285,11 +7120,11 @@
       <c r="A122" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="12" t="s">
         <v>678</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>825</v>
+        <v>766</v>
       </c>
       <c r="D122" s="2">
         <v>0</v>
@@ -7316,11 +7151,11 @@
       <c r="A123" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="12" t="s">
         <v>677</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D123" s="2">
         <v>0</v>
@@ -7347,11 +7182,11 @@
       <c r="A124" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="12" t="s">
         <v>677</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D124" s="2">
         <v>83</v>
@@ -7380,11 +7215,11 @@
       <c r="A125" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="12" t="s">
         <v>677</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>826</v>
+        <v>767</v>
       </c>
       <c r="D125" s="2">
         <v>0</v>
@@ -7411,11 +7246,11 @@
       <c r="A126" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D126" s="2">
         <v>72</v>
@@ -7444,11 +7279,11 @@
       <c r="A127" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D127" s="2">
         <v>58</v>
@@ -7477,11 +7312,11 @@
       <c r="A128" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D128" s="2">
         <v>0</v>
@@ -7508,11 +7343,11 @@
       <c r="A129" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="12" t="s">
         <v>680</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D129" s="2">
         <v>29</v>
@@ -7541,11 +7376,11 @@
       <c r="A130" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="12" t="s">
         <v>680</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -7572,11 +7407,11 @@
       <c r="A131" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D131" s="2">
         <v>76</v>
@@ -7605,11 +7440,11 @@
       <c r="A132" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>827</v>
+        <v>768</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
@@ -7636,11 +7471,11 @@
       <c r="A133" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D133" s="2">
         <v>0</v>
@@ -7667,11 +7502,11 @@
       <c r="A134" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D134" s="2">
         <v>123</v>
@@ -7700,11 +7535,11 @@
       <c r="A135" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D135" s="2">
         <v>71</v>
@@ -7733,11 +7568,11 @@
       <c r="A136" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="12" t="s">
         <v>683</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D136" s="2">
         <v>112</v>
@@ -7766,11 +7601,11 @@
       <c r="A137" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="12" t="s">
         <v>683</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D137" s="2">
         <v>0</v>
@@ -7797,11 +7632,11 @@
       <c r="A138" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="12" t="s">
         <v>683</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D138" s="2">
         <v>94</v>
@@ -7830,11 +7665,11 @@
       <c r="A139" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="12" t="s">
         <v>683</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D139" s="2">
         <v>0</v>
@@ -7861,11 +7696,11 @@
       <c r="A140" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="12" t="s">
         <v>683</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D140" s="2">
         <v>39</v>
@@ -7894,11 +7729,11 @@
       <c r="A141" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="12" t="s">
         <v>683</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D141" s="2">
         <v>30</v>
@@ -7927,11 +7762,11 @@
       <c r="A142" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="D142" s="2">
         <v>0</v>
@@ -7958,11 +7793,11 @@
       <c r="A143" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D143" s="2">
         <v>103</v>
@@ -7991,11 +7826,11 @@
       <c r="A144" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D144" s="2">
         <v>173</v>
@@ -8024,11 +7859,11 @@
       <c r="A145" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="D145" s="2">
         <v>0</v>
@@ -8055,11 +7890,11 @@
       <c r="A146" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>828</v>
+        <v>769</v>
       </c>
       <c r="D146" s="2">
         <v>0</v>
@@ -8086,11 +7921,11 @@
       <c r="A147" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D147" s="2">
         <v>0</v>
@@ -8117,11 +7952,11 @@
       <c r="A148" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D148" s="2">
         <v>149</v>
@@ -8150,11 +7985,11 @@
       <c r="A149" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>828</v>
+        <v>769</v>
       </c>
       <c r="D149" s="2">
         <v>0</v>
@@ -8181,11 +8016,11 @@
       <c r="A150" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D150" s="2">
         <v>134</v>
@@ -8214,11 +8049,11 @@
       <c r="A151" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D151" s="2">
         <v>148</v>
@@ -8247,11 +8082,11 @@
       <c r="A152" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D152" s="2">
         <v>99</v>
@@ -8280,11 +8115,11 @@
       <c r="A153" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="12" t="s">
         <v>682</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>825</v>
+        <v>766</v>
       </c>
       <c r="D153" s="2">
         <v>0</v>
@@ -8311,11 +8146,11 @@
       <c r="A154" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D154" s="2">
         <v>0</v>
@@ -8342,11 +8177,11 @@
       <c r="A155" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D155" s="2">
         <v>28</v>
@@ -8375,11 +8210,11 @@
       <c r="A156" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D156" s="2">
         <v>0</v>
@@ -8406,11 +8241,11 @@
       <c r="A157" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D157" s="2">
         <v>4</v>
@@ -8439,11 +8274,11 @@
       <c r="A158" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D158" s="2">
         <v>108</v>
@@ -8472,11 +8307,11 @@
       <c r="A159" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
       <c r="D159" s="2">
         <v>0</v>
@@ -8503,11 +8338,11 @@
       <c r="A160" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D160" s="2">
         <v>139</v>
@@ -8536,11 +8371,11 @@
       <c r="A161" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D161" s="2">
         <v>121</v>
@@ -8569,11 +8404,11 @@
       <c r="A162" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D162" s="2">
         <v>227</v>
@@ -8602,11 +8437,11 @@
       <c r="A163" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D163" s="2">
         <v>161</v>
@@ -8635,11 +8470,11 @@
       <c r="A164" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D164" s="2">
         <v>86</v>
@@ -8668,11 +8503,11 @@
       <c r="A165" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D165" s="2">
         <v>124</v>
@@ -8701,11 +8536,11 @@
       <c r="A166" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D166" s="2">
         <v>110</v>
@@ -8734,7 +8569,7 @@
       <c r="A167" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C167" s="2"/>
@@ -8763,11 +8598,11 @@
       <c r="A168" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>829</v>
+        <v>770</v>
       </c>
       <c r="D168" s="2">
         <v>0</v>
@@ -8794,11 +8629,11 @@
       <c r="A169" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>830</v>
+        <v>771</v>
       </c>
       <c r="D169" s="2">
         <v>0</v>
@@ -8825,11 +8660,11 @@
       <c r="A170" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>831</v>
+        <v>772</v>
       </c>
       <c r="D170" s="2">
         <v>11</v>
@@ -8858,11 +8693,11 @@
       <c r="A171" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="12" t="s">
         <v>684</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D171" s="2">
         <v>131</v>
@@ -8891,11 +8726,11 @@
       <c r="A172" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D172" s="2">
         <v>16</v>
@@ -8924,11 +8759,11 @@
       <c r="A173" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="12" t="s">
         <v>684</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="D173" s="2">
         <v>0</v>
@@ -8955,11 +8790,11 @@
       <c r="A174" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="12" t="s">
         <v>684</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D174" s="2">
         <v>0</v>
@@ -8986,11 +8821,11 @@
       <c r="A175" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="12" t="s">
         <v>684</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>832</v>
+        <v>773</v>
       </c>
       <c r="D175" s="2">
         <v>0</v>
@@ -9017,11 +8852,11 @@
       <c r="A176" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="12" t="s">
         <v>685</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D176" s="2">
         <v>21</v>
@@ -9050,11 +8885,11 @@
       <c r="A177" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="12" t="s">
         <v>685</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D177" s="2">
         <v>0</v>
@@ -9081,11 +8916,11 @@
       <c r="A178" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="12" t="s">
         <v>685</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>833</v>
+        <v>774</v>
       </c>
       <c r="D178" s="2">
         <v>0</v>
@@ -9112,11 +8947,11 @@
       <c r="A179" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="12" t="s">
         <v>685</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D179" s="2">
         <v>24</v>
@@ -9145,11 +8980,11 @@
       <c r="A180" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="12" t="s">
         <v>686</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D180" s="2">
         <v>8</v>
@@ -9178,11 +9013,11 @@
       <c r="A181" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="12" t="s">
         <v>686</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D181" s="2">
         <v>30</v>
@@ -9211,11 +9046,11 @@
       <c r="A182" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="12" t="s">
         <v>685</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D182" s="2">
         <v>133</v>
@@ -9244,11 +9079,11 @@
       <c r="A183" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="12" t="s">
         <v>685</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D183" s="2">
         <v>49</v>
@@ -9277,11 +9112,11 @@
       <c r="A184" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="12" t="s">
         <v>685</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D184" s="2">
         <v>0</v>
@@ -9308,11 +9143,11 @@
       <c r="A185" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="12" t="s">
         <v>685</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D185" s="2">
         <v>142</v>
@@ -9341,11 +9176,11 @@
       <c r="A186" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D186" s="2">
         <v>0</v>
@@ -9372,11 +9207,11 @@
       <c r="A187" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D187" s="2">
         <v>183</v>
@@ -9405,11 +9240,11 @@
       <c r="A188" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D188" s="2">
         <v>126</v>
@@ -9438,11 +9273,11 @@
       <c r="A189" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>834</v>
+        <v>775</v>
       </c>
       <c r="D189" s="2">
         <v>0</v>
@@ -9469,11 +9304,11 @@
       <c r="A190" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>835</v>
+        <v>776</v>
       </c>
       <c r="D190" s="2">
         <v>0</v>
@@ -9500,11 +9335,11 @@
       <c r="A191" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>836</v>
+        <v>777</v>
       </c>
       <c r="D191" s="2">
         <v>0</v>
@@ -9531,11 +9366,11 @@
       <c r="A192" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D192" s="2">
         <v>0</v>
@@ -9562,11 +9397,11 @@
       <c r="A193" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D193" s="2">
         <v>0</v>
@@ -9593,11 +9428,11 @@
       <c r="A194" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D194" s="2">
         <v>22</v>
@@ -9626,11 +9461,11 @@
       <c r="A195" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D195" s="2">
         <v>0</v>
@@ -9657,11 +9492,11 @@
       <c r="A196" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="12" t="s">
         <v>663</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D196" s="2">
         <v>103</v>
@@ -9690,11 +9525,11 @@
       <c r="A197" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D197" s="2">
         <v>0</v>
@@ -9721,11 +9556,11 @@
       <c r="A198" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D198" s="2">
         <v>98</v>
@@ -9754,11 +9589,11 @@
       <c r="A199" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D199" s="2">
         <v>146</v>
@@ -9787,11 +9622,11 @@
       <c r="A200" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D200" s="2">
         <v>128</v>
@@ -9820,11 +9655,11 @@
       <c r="A201" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D201" s="2">
         <v>107</v>
@@ -9853,11 +9688,11 @@
       <c r="A202" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D202" s="2">
         <v>0</v>
@@ -9884,11 +9719,11 @@
       <c r="A203" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>837</v>
+        <v>778</v>
       </c>
       <c r="D203" s="2">
         <v>0</v>
@@ -9915,11 +9750,11 @@
       <c r="A204" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>837</v>
+        <v>778</v>
       </c>
       <c r="D204" s="2">
         <v>0</v>
@@ -9946,11 +9781,11 @@
       <c r="A205" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D205" s="2">
         <v>0</v>
@@ -9977,11 +9812,11 @@
       <c r="A206" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>837</v>
+        <v>778</v>
       </c>
       <c r="D206" s="2">
         <v>0</v>
@@ -10008,11 +9843,11 @@
       <c r="A207" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>837</v>
+        <v>778</v>
       </c>
       <c r="D207" s="2">
         <v>0</v>
@@ -10039,11 +9874,11 @@
       <c r="A208" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="D208" s="2">
         <v>0</v>
@@ -10070,11 +9905,11 @@
       <c r="A209" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D209" s="2">
         <v>110</v>
@@ -10103,11 +9938,11 @@
       <c r="A210" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D210" s="2">
         <v>109</v>
@@ -10136,11 +9971,11 @@
       <c r="A211" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>838</v>
+        <v>779</v>
       </c>
       <c r="D211" s="2">
         <v>0</v>
@@ -10167,11 +10002,11 @@
       <c r="A212" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D212" s="2">
         <v>115</v>
@@ -10200,11 +10035,11 @@
       <c r="A213" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D213" s="2">
         <v>0</v>
@@ -10231,11 +10066,11 @@
       <c r="A214" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="12" t="s">
         <v>687</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>839</v>
+        <v>780</v>
       </c>
       <c r="D214" s="2">
         <v>0</v>
@@ -10262,11 +10097,11 @@
       <c r="A215" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="12" t="s">
         <v>688</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D215" s="2">
         <v>44</v>
@@ -10295,11 +10130,11 @@
       <c r="A216" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="12" t="s">
         <v>681</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D216" s="2">
         <v>42</v>
@@ -10328,11 +10163,11 @@
       <c r="A217" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="12" t="s">
         <v>675</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>840</v>
+        <v>781</v>
       </c>
       <c r="D217" s="2">
         <v>0</v>
@@ -10359,11 +10194,11 @@
       <c r="A218" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="12" t="s">
         <v>675</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D218" s="2">
         <v>151</v>
@@ -10392,11 +10227,11 @@
       <c r="A219" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="12" t="s">
         <v>675</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D219" s="2">
         <v>103</v>
@@ -10425,11 +10260,11 @@
       <c r="A220" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="12" t="s">
         <v>675</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D220" s="2">
         <v>109</v>
@@ -10458,11 +10293,11 @@
       <c r="A221" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="12" t="s">
         <v>675</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D221" s="2">
         <v>0</v>
@@ -10489,11 +10324,11 @@
       <c r="A222" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="12" t="s">
         <v>675</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D222" s="2">
         <v>62</v>
@@ -10522,11 +10357,11 @@
       <c r="A223" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="12" t="s">
         <v>675</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D223" s="2">
         <v>0</v>
@@ -10553,11 +10388,11 @@
       <c r="A224" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="12" t="s">
         <v>689</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>841</v>
+        <v>782</v>
       </c>
       <c r="D224" s="2">
         <v>0</v>
@@ -10584,11 +10419,11 @@
       <c r="A225" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="14" t="s">
         <v>689</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D225" s="2">
         <v>103</v>
@@ -10617,11 +10452,11 @@
       <c r="A226" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="14" t="s">
         <v>689</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D226" s="2">
         <v>83</v>
@@ -10650,11 +10485,11 @@
       <c r="A227" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="14" t="s">
         <v>689</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D227" s="2">
         <v>0</v>
@@ -10681,11 +10516,11 @@
       <c r="A228" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="12" t="s">
         <v>690</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D228" s="2">
         <v>80</v>
@@ -10714,11 +10549,11 @@
       <c r="A229" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="12" t="s">
         <v>690</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D229" s="2">
         <v>8</v>
@@ -10747,11 +10582,11 @@
       <c r="A230" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="12" t="s">
         <v>690</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D230" s="2">
         <v>0</v>
@@ -10778,11 +10613,11 @@
       <c r="A231" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="12" t="s">
         <v>690</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D231" s="2">
         <v>98</v>
@@ -10811,11 +10646,11 @@
       <c r="A232" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="12" t="s">
         <v>690</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D232" s="2">
         <v>89</v>
@@ -10844,11 +10679,11 @@
       <c r="A233" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="14" t="s">
         <v>690</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D233" s="2">
         <v>0</v>
@@ -10875,11 +10710,11 @@
       <c r="A234" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="12" t="s">
         <v>690</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D234" s="2">
         <v>54</v>
@@ -10908,11 +10743,11 @@
       <c r="A235" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="12" t="s">
         <v>690</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="D235" s="2">
         <v>0</v>
@@ -10939,11 +10774,11 @@
       <c r="A236" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="12" t="s">
         <v>691</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D236" s="2">
         <v>0</v>
@@ -10970,11 +10805,11 @@
       <c r="A237" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="12" t="s">
         <v>691</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D237" s="2">
         <v>141</v>
@@ -11003,11 +10838,11 @@
       <c r="A238" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="12" t="s">
         <v>691</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D238" s="2">
         <v>105</v>
@@ -11036,11 +10871,11 @@
       <c r="A239" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="12" t="s">
         <v>692</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D239" s="2">
         <v>72</v>
@@ -11069,11 +10904,11 @@
       <c r="A240" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="12" t="s">
         <v>692</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D240" s="2">
         <v>52</v>
@@ -11102,11 +10937,11 @@
       <c r="A241" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="12" t="s">
         <v>692</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D241" s="2">
         <v>0</v>
@@ -11133,11 +10968,11 @@
       <c r="A242" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D242" s="2">
         <v>133</v>
@@ -11165,11 +11000,11 @@
       <c r="A243" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D243" s="2">
         <v>0</v>
@@ -11196,11 +11031,11 @@
       <c r="A244" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D244" s="2">
         <v>17</v>
@@ -11228,11 +11063,11 @@
       <c r="A245" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="D245" s="2">
         <v>0</v>
@@ -11259,11 +11094,11 @@
       <c r="A246" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D246" s="2">
         <v>0</v>
@@ -11290,11 +11125,11 @@
       <c r="A247" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="12" t="s">
         <v>679</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>842</v>
+        <v>783</v>
       </c>
       <c r="D247" s="2">
         <v>24</v>
@@ -11322,11 +11157,11 @@
       <c r="A248" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>693</v>
+      <c r="B248" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>843</v>
+        <v>784</v>
       </c>
       <c r="D248" s="2">
         <v>0</v>
@@ -11353,11 +11188,11 @@
       <c r="A249" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>694</v>
+      <c r="B249" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>844</v>
+        <v>785</v>
       </c>
       <c r="D249" s="2">
         <v>0</v>
@@ -11384,11 +11219,11 @@
       <c r="A250" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>695</v>
+      <c r="B250" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>845</v>
+        <v>786</v>
       </c>
       <c r="D250" s="2">
         <v>96</v>
@@ -11416,11 +11251,11 @@
       <c r="A251" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>696</v>
+      <c r="B251" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D251" s="2">
         <v>455</v>
@@ -11447,11 +11282,11 @@
       <c r="A252" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>697</v>
+      <c r="B252" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>846</v>
+        <v>787</v>
       </c>
       <c r="D252" s="2">
         <v>0</v>
@@ -11478,11 +11313,11 @@
       <c r="A253" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>697</v>
+      <c r="B253" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
       <c r="D253" s="2">
         <v>0</v>
@@ -11509,7 +11344,7 @@
       <c r="A254" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B254" s="2"/>
+      <c r="B254" s="12"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2">
         <v>0</v>
@@ -11536,11 +11371,11 @@
       <c r="A255" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>698</v>
+      <c r="B255" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>848</v>
+        <v>789</v>
       </c>
       <c r="D255" s="2">
         <v>0</v>
@@ -11567,11 +11402,11 @@
       <c r="A256" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>698</v>
+      <c r="B256" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
       <c r="D256" s="2">
         <v>0</v>
@@ -11598,7 +11433,7 @@
       <c r="A257" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B257" s="2"/>
+      <c r="B257" s="12"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2">
         <v>0</v>
@@ -11625,11 +11460,11 @@
       <c r="A258" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>699</v>
+      <c r="B258" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>849</v>
+        <v>790</v>
       </c>
       <c r="D258" s="2">
         <v>0</v>
@@ -11656,7 +11491,7 @@
       <c r="A259" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B259" s="2"/>
+      <c r="B259" s="12"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2">
         <v>0</v>
@@ -11683,11 +11518,11 @@
       <c r="A260" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>695</v>
+      <c r="B260" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>850</v>
+        <v>791</v>
       </c>
       <c r="D260" s="2">
         <v>0</v>
@@ -11714,8 +11549,8 @@
       <c r="A261" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>700</v>
+      <c r="B261" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2">
@@ -11744,7 +11579,7 @@
       <c r="A262" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B262" s="2"/>
+      <c r="B262" s="12"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2">
         <v>0</v>
@@ -11771,7 +11606,7 @@
       <c r="A263" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B263" s="2"/>
+      <c r="B263" s="12"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2">
         <v>0</v>
@@ -11798,11 +11633,11 @@
       <c r="A264" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>700</v>
+      <c r="B264" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D264" s="2">
         <v>0</v>
@@ -11829,11 +11664,11 @@
       <c r="A265" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>700</v>
+      <c r="B265" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D265" s="2">
         <v>0</v>
@@ -11860,11 +11695,11 @@
       <c r="A266" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>700</v>
+      <c r="B266" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D266" s="2">
         <v>0</v>
@@ -11891,11 +11726,11 @@
       <c r="A267" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>700</v>
+      <c r="B267" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D267" s="2">
         <v>0</v>
@@ -11922,11 +11757,11 @@
       <c r="A268" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>700</v>
+      <c r="B268" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D268" s="2">
         <v>0</v>
@@ -11953,11 +11788,11 @@
       <c r="A269" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>700</v>
+      <c r="B269" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
       <c r="D269" s="2">
         <v>0</v>
@@ -11984,11 +11819,11 @@
       <c r="A270" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>700</v>
+      <c r="B270" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>851</v>
+        <v>792</v>
       </c>
       <c r="D270" s="2">
         <v>0</v>
@@ -12015,11 +11850,11 @@
       <c r="A271" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>701</v>
+      <c r="B271" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>852</v>
+        <v>793</v>
       </c>
       <c r="D271" s="2">
         <v>0</v>
@@ -12046,11 +11881,11 @@
       <c r="A272" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>701</v>
+      <c r="B272" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>853</v>
+        <v>794</v>
       </c>
       <c r="D272" s="2">
         <v>0</v>
@@ -12077,11 +11912,11 @@
       <c r="A273" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>702</v>
+      <c r="B273" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D273" s="2">
         <v>1035</v>
@@ -12108,11 +11943,11 @@
       <c r="A274" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>703</v>
+      <c r="B274" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>854</v>
+        <v>795</v>
       </c>
       <c r="D274" s="2">
         <v>0</v>
@@ -12139,11 +11974,11 @@
       <c r="A275" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>695</v>
+      <c r="B275" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>855</v>
+        <v>796</v>
       </c>
       <c r="D275" s="2">
         <v>0</v>
@@ -12170,11 +12005,11 @@
       <c r="A276" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>704</v>
+      <c r="B276" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D276" s="2">
         <v>226</v>
@@ -12202,11 +12037,11 @@
       <c r="A277" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>705</v>
+      <c r="B277" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>856</v>
+        <v>797</v>
       </c>
       <c r="D277" s="2">
         <v>123</v>
@@ -12234,11 +12069,11 @@
       <c r="A278" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>705</v>
+      <c r="B278" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D278" s="2">
         <v>420</v>
@@ -12266,7 +12101,7 @@
       <c r="A279" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B279" s="2"/>
+      <c r="B279" s="12"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2">
         <v>0</v>
@@ -12293,11 +12128,11 @@
       <c r="A280" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>706</v>
+      <c r="B280" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D280" s="2">
         <v>792</v>
@@ -12324,11 +12159,11 @@
       <c r="A281" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>705</v>
+      <c r="B281" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
       <c r="D281" s="2">
         <v>0</v>
@@ -12355,11 +12190,11 @@
       <c r="A282" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>707</v>
+      <c r="B282" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
       <c r="D282" s="2">
         <v>0</v>
@@ -12386,11 +12221,11 @@
       <c r="A283" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>708</v>
+      <c r="B283" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D283" s="2">
         <v>1</v>
@@ -12418,11 +12253,11 @@
       <c r="A284" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>708</v>
+      <c r="B284" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D284" s="2">
         <v>119</v>
@@ -12450,11 +12285,11 @@
       <c r="A285" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>709</v>
+      <c r="B285" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D285" s="2">
         <v>162</v>
@@ -12482,11 +12317,11 @@
       <c r="A286" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>710</v>
+      <c r="B286" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>846</v>
+        <v>787</v>
       </c>
       <c r="D286" s="2">
         <v>0</v>
@@ -12513,11 +12348,11 @@
       <c r="A287" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>711</v>
+      <c r="B287" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>857</v>
+        <v>798</v>
       </c>
       <c r="D287" s="2">
         <v>0</v>
@@ -12544,11 +12379,11 @@
       <c r="A288" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>712</v>
+      <c r="B288" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D288" s="2">
         <v>324</v>
@@ -12575,11 +12410,11 @@
       <c r="A289" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>713</v>
+      <c r="B289" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D289" s="2">
         <v>114</v>
@@ -12607,11 +12442,11 @@
       <c r="A290" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>696</v>
+      <c r="B290" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>846</v>
+        <v>787</v>
       </c>
       <c r="D290" s="2">
         <v>0</v>
@@ -12638,11 +12473,11 @@
       <c r="A291" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>714</v>
+      <c r="B291" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>858</v>
+        <v>799</v>
       </c>
       <c r="D291" s="2">
         <v>0</v>
@@ -12669,11 +12504,11 @@
       <c r="A292" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>715</v>
+      <c r="B292" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>859</v>
+        <v>800</v>
       </c>
       <c r="D292" s="2">
         <v>0</v>
@@ -12700,11 +12535,11 @@
       <c r="A293" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>696</v>
+      <c r="B293" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D293" s="2">
         <v>0</v>
@@ -12731,11 +12566,11 @@
       <c r="A294" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>693</v>
+      <c r="B294" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>860</v>
+        <v>801</v>
       </c>
       <c r="D294" s="2">
         <v>0</v>
@@ -12762,7 +12597,7 @@
       <c r="A295" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B295" s="2"/>
+      <c r="B295" s="12"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2">
         <v>0</v>
@@ -12789,11 +12624,11 @@
       <c r="A296" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>716</v>
+      <c r="B296" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>861</v>
+        <v>802</v>
       </c>
       <c r="D296" s="2">
         <v>0</v>
@@ -12820,11 +12655,11 @@
       <c r="A297" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>696</v>
+      <c r="B297" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D297" s="2">
         <v>534</v>
@@ -12851,11 +12686,11 @@
       <c r="A298" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>695</v>
+      <c r="B298" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D298" s="2">
         <v>0</v>
@@ -12882,11 +12717,11 @@
       <c r="A299" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B299" s="2" t="s">
-        <v>717</v>
+      <c r="B299" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D299" s="2">
         <v>720</v>
@@ -12913,11 +12748,11 @@
       <c r="A300" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>718</v>
+      <c r="B300" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D300" s="2">
         <v>76</v>
@@ -12945,11 +12780,11 @@
       <c r="A301" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B301" s="2" t="s">
-        <v>719</v>
+      <c r="B301" s="12" t="s">
+        <v>695</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D301" s="2">
         <v>0</v>
@@ -12976,11 +12811,11 @@
       <c r="A302" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>719</v>
+      <c r="B302" s="12" t="s">
+        <v>695</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>862</v>
+        <v>803</v>
       </c>
       <c r="D302" s="2">
         <v>0</v>
@@ -13007,11 +12842,11 @@
       <c r="A303" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>719</v>
+      <c r="B303" s="12" t="s">
+        <v>695</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D303" s="2">
         <v>54</v>
@@ -13039,11 +12874,11 @@
       <c r="A304" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>719</v>
+      <c r="B304" s="12" t="s">
+        <v>695</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D304" s="2">
         <v>53</v>
@@ -13071,11 +12906,11 @@
       <c r="A305" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>720</v>
+      <c r="B305" s="12" t="s">
+        <v>696</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>863</v>
+        <v>804</v>
       </c>
       <c r="D305" s="2">
         <v>0</v>
@@ -13102,11 +12937,11 @@
       <c r="A306" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>700</v>
+      <c r="B306" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>958</v>
+        <v>899</v>
       </c>
       <c r="D306" s="2">
         <v>0</v>
@@ -13133,11 +12968,11 @@
       <c r="A307" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>721</v>
+      <c r="B307" s="12" t="s">
+        <v>697</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D307" s="2">
         <v>75</v>
@@ -13165,11 +13000,11 @@
       <c r="A308" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>721</v>
+      <c r="B308" s="12" t="s">
+        <v>697</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="D308" s="2">
         <v>0</v>
@@ -13196,11 +13031,11 @@
       <c r="A309" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>719</v>
+      <c r="B309" s="12" t="s">
+        <v>695</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>864</v>
+        <v>805</v>
       </c>
       <c r="D309" s="2">
         <v>0</v>
@@ -13227,7 +13062,7 @@
       <c r="A310" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B310" s="2"/>
+      <c r="B310" s="12"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2">
         <v>0</v>
@@ -13254,11 +13089,11 @@
       <c r="A311" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B311" s="7" t="s">
-        <v>722</v>
+      <c r="B311" s="14" t="s">
+        <v>698</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>865</v>
+        <v>806</v>
       </c>
       <c r="D311" s="7">
         <v>0</v>
@@ -13285,11 +13120,11 @@
       <c r="A312" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>722</v>
+      <c r="B312" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>866</v>
+        <v>807</v>
       </c>
       <c r="D312" s="2">
         <v>0</v>
@@ -13316,11 +13151,11 @@
       <c r="A313" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B313" s="2" t="s">
-        <v>722</v>
+      <c r="B313" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>867</v>
+        <v>808</v>
       </c>
       <c r="D313" s="2">
         <v>0</v>
@@ -13347,11 +13182,11 @@
       <c r="A314" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B314" s="2" t="s">
-        <v>722</v>
+      <c r="B314" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>868</v>
+        <v>809</v>
       </c>
       <c r="D314" s="2">
         <v>0</v>
@@ -13378,11 +13213,11 @@
       <c r="A315" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>722</v>
+      <c r="B315" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>869</v>
+        <v>810</v>
       </c>
       <c r="D315" s="2">
         <v>0</v>
@@ -13409,11 +13244,11 @@
       <c r="A316" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B316" s="2" t="s">
-        <v>722</v>
+      <c r="B316" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>870</v>
+        <v>811</v>
       </c>
       <c r="D316" s="2">
         <v>0</v>
@@ -13440,7 +13275,7 @@
       <c r="A317" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B317" s="2"/>
+      <c r="B317" s="12"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2">
         <v>0</v>
@@ -13467,11 +13302,11 @@
       <c r="A318" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>722</v>
+      <c r="B318" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>870</v>
+        <v>811</v>
       </c>
       <c r="D318" s="2">
         <v>0</v>
@@ -13498,11 +13333,11 @@
       <c r="A319" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>722</v>
+      <c r="B319" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>871</v>
+        <v>812</v>
       </c>
       <c r="D319" s="2">
         <v>0</v>
@@ -13529,11 +13364,11 @@
       <c r="A320" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>722</v>
+      <c r="B320" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D320" s="2">
         <v>233</v>
@@ -13560,11 +13395,11 @@
       <c r="A321" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B321" s="2" t="s">
-        <v>723</v>
+      <c r="B321" s="12" t="s">
+        <v>699</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D321" s="2">
         <v>102</v>
@@ -13592,11 +13427,11 @@
       <c r="A322" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>723</v>
+      <c r="B322" s="12" t="s">
+        <v>699</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D322" s="2">
         <v>62</v>
@@ -13624,11 +13459,11 @@
       <c r="A323" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>723</v>
+      <c r="B323" s="12" t="s">
+        <v>699</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D323" s="2">
         <v>58</v>
@@ -13656,11 +13491,11 @@
       <c r="A324" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>722</v>
+      <c r="B324" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D324" s="2">
         <v>89</v>
@@ -13688,11 +13523,11 @@
       <c r="A325" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>722</v>
+      <c r="B325" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D325" s="2">
         <v>102</v>
@@ -13720,9 +13555,9 @@
       <c r="A326" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B326" s="2"/>
+      <c r="B326" s="12"/>
       <c r="C326" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D326" s="2">
         <v>0</v>
@@ -13749,9 +13584,9 @@
       <c r="A327" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B327" s="2"/>
+      <c r="B327" s="12"/>
       <c r="C327" s="2" t="s">
-        <v>872</v>
+        <v>813</v>
       </c>
       <c r="D327" s="2">
         <v>0</v>
@@ -13778,11 +13613,11 @@
       <c r="A328" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>705</v>
+      <c r="B328" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D328" s="2">
         <v>224</v>
@@ -13810,11 +13645,11 @@
       <c r="A329" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>709</v>
+      <c r="B329" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D329" s="2">
         <v>13</v>
@@ -13842,11 +13677,11 @@
       <c r="A330" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>724</v>
+      <c r="B330" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D330" s="2">
         <v>156</v>
@@ -13874,11 +13709,11 @@
       <c r="A331" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>725</v>
+      <c r="B331" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D331" s="2">
         <v>21</v>
@@ -13906,11 +13741,11 @@
       <c r="A332" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>726</v>
+      <c r="B332" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D332" s="2">
         <v>1</v>
@@ -13938,11 +13773,11 @@
       <c r="A333" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>727</v>
+      <c r="B333" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D333" s="2">
         <v>282</v>
@@ -13969,11 +13804,11 @@
       <c r="A334" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B334" s="2" t="s">
-        <v>728</v>
+      <c r="B334" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D334" s="2">
         <v>273</v>
@@ -14000,11 +13835,11 @@
       <c r="A335" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>729</v>
+      <c r="B335" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D335" s="2">
         <v>108</v>
@@ -14032,11 +13867,11 @@
       <c r="A336" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>706</v>
+      <c r="B336" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D336" s="2">
         <v>175</v>
@@ -14064,11 +13899,11 @@
       <c r="A337" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B337" s="2" t="s">
-        <v>727</v>
+      <c r="B337" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>873</v>
+        <v>814</v>
       </c>
       <c r="D337" s="2">
         <v>7</v>
@@ -14096,11 +13931,11 @@
       <c r="A338" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B338" s="2" t="s">
-        <v>730</v>
+      <c r="B338" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D338" s="2">
         <v>138</v>
@@ -14128,11 +13963,11 @@
       <c r="A339" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="12" t="s">
         <v>731</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D339" s="2">
         <v>171</v>
@@ -14160,11 +13995,11 @@
       <c r="A340" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B340" s="2" t="s">
-        <v>732</v>
+      <c r="B340" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -14187,11 +14022,11 @@
       <c r="A341" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B341" s="2" t="s">
-        <v>730</v>
+      <c r="B341" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D341" s="2">
         <v>213</v>
@@ -14218,11 +14053,11 @@
       <c r="A342" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="12" t="s">
         <v>731</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D342" s="2">
         <v>210</v>
@@ -14249,11 +14084,11 @@
       <c r="A343" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B343" s="2" t="s">
-        <v>733</v>
+      <c r="B343" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D343" s="2">
         <v>263</v>
@@ -14280,7 +14115,7 @@
       <c r="A344" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B344" s="2"/>
+      <c r="B344" s="12"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2">
         <v>0</v>
@@ -14307,11 +14142,11 @@
       <c r="A345" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B345" s="2" t="s">
-        <v>734</v>
+      <c r="B345" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D345" s="2">
         <v>113</v>
@@ -14339,11 +14174,11 @@
       <c r="A346" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B346" s="2" t="s">
-        <v>708</v>
+      <c r="B346" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D346" s="2">
         <v>27</v>
@@ -14371,11 +14206,11 @@
       <c r="A347" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B347" s="2" t="s">
-        <v>708</v>
+      <c r="B347" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D347" s="2">
         <v>336</v>
@@ -14402,11 +14237,11 @@
       <c r="A348" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B348" s="2" t="s">
-        <v>708</v>
+      <c r="B348" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D348" s="2">
         <v>524</v>
@@ -14433,11 +14268,11 @@
       <c r="A349" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B349" s="2" t="s">
-        <v>695</v>
+      <c r="B349" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D349" s="2">
         <v>0</v>
@@ -14464,11 +14299,11 @@
       <c r="A350" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B350" s="2" t="s">
-        <v>711</v>
+      <c r="B350" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>874</v>
+        <v>815</v>
       </c>
       <c r="D350" s="2">
         <v>0</v>
@@ -14495,11 +14330,11 @@
       <c r="A351" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B351" s="2" t="s">
-        <v>735</v>
+      <c r="B351" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D351" s="2">
         <v>0</v>
@@ -14526,11 +14361,11 @@
       <c r="A352" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B352" s="2" t="s">
-        <v>735</v>
+      <c r="B352" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>875</v>
+        <v>816</v>
       </c>
       <c r="D352" s="2">
         <v>0</v>
@@ -14557,7 +14392,7 @@
       <c r="A353" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B353" s="2"/>
+      <c r="B353" s="12"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2">
         <v>0</v>
@@ -14584,11 +14419,11 @@
       <c r="A354" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>696</v>
+      <c r="B354" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>876</v>
+        <v>817</v>
       </c>
       <c r="D354" s="2">
         <v>1</v>
@@ -14616,11 +14451,11 @@
       <c r="A355" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B355" s="2" t="s">
-        <v>736</v>
+      <c r="B355" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>877</v>
+        <v>818</v>
       </c>
       <c r="D355" s="2">
         <v>0</v>
@@ -14647,11 +14482,11 @@
       <c r="A356" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>737</v>
+      <c r="B356" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>878</v>
+        <v>819</v>
       </c>
       <c r="D356" s="2">
         <v>0</v>
@@ -14678,11 +14513,11 @@
       <c r="A357" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>737</v>
+      <c r="B357" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D357" s="2">
         <v>47</v>
@@ -14710,11 +14545,11 @@
       <c r="A358" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>700</v>
+      <c r="B358" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>879</v>
+        <v>820</v>
       </c>
       <c r="D358" s="2">
         <v>0</v>
@@ -14741,11 +14576,11 @@
       <c r="A359" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>738</v>
+      <c r="B359" s="12" t="s">
+        <v>700</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D359" s="2">
         <v>221</v>
@@ -14772,11 +14607,11 @@
       <c r="A360" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>738</v>
+      <c r="B360" s="12" t="s">
+        <v>700</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D360" s="2">
         <v>207</v>
@@ -14804,11 +14639,11 @@
       <c r="A361" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>701</v>
+      <c r="B361" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>880</v>
+        <v>821</v>
       </c>
       <c r="D361" s="2">
         <v>0</v>
@@ -14835,11 +14670,11 @@
       <c r="A362" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>701</v>
+      <c r="B362" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D362" s="2">
         <v>146</v>
@@ -14867,11 +14702,11 @@
       <c r="A363" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B363" s="2" t="s">
-        <v>701</v>
+      <c r="B363" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D363" s="2">
         <v>112</v>
@@ -14899,11 +14734,11 @@
       <c r="A364" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>701</v>
+      <c r="B364" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D364" s="2">
         <v>112</v>
@@ -14931,11 +14766,11 @@
       <c r="A365" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B365" s="2" t="s">
-        <v>701</v>
+      <c r="B365" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D365" s="2">
         <v>71</v>
@@ -14963,11 +14798,11 @@
       <c r="A366" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>701</v>
+      <c r="B366" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D366" s="2">
         <v>99</v>
@@ -14995,11 +14830,11 @@
       <c r="A367" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>697</v>
+      <c r="B367" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>846</v>
+        <v>787</v>
       </c>
       <c r="D367" s="2">
         <v>0</v>
@@ -15026,11 +14861,11 @@
       <c r="A368" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B368" s="2" t="s">
-        <v>700</v>
+      <c r="B368" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>866</v>
+        <v>807</v>
       </c>
       <c r="D368" s="2">
         <v>0</v>
@@ -15057,11 +14892,11 @@
       <c r="A369" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B369" s="2" t="s">
-        <v>700</v>
+      <c r="B369" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>881</v>
+        <v>822</v>
       </c>
       <c r="D369" s="2">
         <v>0</v>
@@ -15088,11 +14923,11 @@
       <c r="A370" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B370" s="2" t="s">
-        <v>700</v>
+      <c r="B370" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>882</v>
+        <v>823</v>
       </c>
       <c r="D370" s="2">
         <v>0</v>
@@ -15119,11 +14954,11 @@
       <c r="A371" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B371" s="2" t="s">
-        <v>697</v>
+      <c r="B371" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
       <c r="D371" s="2">
         <v>0</v>
@@ -15148,7 +14983,7 @@
     </row>
     <row r="372" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="7"/>
-      <c r="B372" s="2"/>
+      <c r="B372" s="12"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2">
         <v>0</v>
@@ -15175,11 +15010,11 @@
       <c r="A373" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B373" s="2" t="s">
-        <v>694</v>
+      <c r="B373" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>844</v>
+        <v>785</v>
       </c>
       <c r="D373" s="2">
         <v>0</v>
@@ -15206,11 +15041,11 @@
       <c r="A374" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>693</v>
+      <c r="B374" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>843</v>
+        <v>784</v>
       </c>
       <c r="D374" s="2">
         <v>0</v>
@@ -15237,11 +15072,11 @@
       <c r="A375" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B375" s="2" t="s">
-        <v>739</v>
+      <c r="B375" s="12" t="s">
+        <v>701</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D375" s="2">
         <v>196</v>
@@ -15269,11 +15104,11 @@
       <c r="A376" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B376" s="2" t="s">
-        <v>739</v>
+      <c r="B376" s="12" t="s">
+        <v>701</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D376" s="2">
         <v>118</v>
@@ -15301,11 +15136,11 @@
       <c r="A377" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B377" s="2" t="s">
-        <v>739</v>
+      <c r="B377" s="12" t="s">
+        <v>701</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D377" s="2">
         <v>9</v>
@@ -15333,11 +15168,11 @@
       <c r="A378" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B378" s="2" t="s">
-        <v>740</v>
+      <c r="B378" s="12" t="s">
+        <v>702</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D378" s="2">
         <v>98</v>
@@ -15365,11 +15200,11 @@
       <c r="A379" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>739</v>
+      <c r="B379" s="12" t="s">
+        <v>701</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
       <c r="D379" s="2">
         <v>0</v>
@@ -15396,11 +15231,11 @@
       <c r="A380" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B380" s="2" t="s">
-        <v>741</v>
+      <c r="B380" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D380" s="2">
         <v>108</v>
@@ -15428,11 +15263,11 @@
       <c r="A381" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B381" s="2" t="s">
-        <v>741</v>
+      <c r="B381" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D381" s="2">
         <v>160</v>
@@ -15460,11 +15295,11 @@
       <c r="A382" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B382" s="2" t="s">
-        <v>741</v>
+      <c r="B382" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D382" s="2">
         <v>21</v>
@@ -15492,11 +15327,11 @@
       <c r="A383" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B383" s="2" t="s">
-        <v>741</v>
+      <c r="B383" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D383" s="2">
         <v>119</v>
@@ -15524,11 +15359,11 @@
       <c r="A384" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B384" s="2" t="s">
-        <v>741</v>
+      <c r="B384" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D384" s="2">
         <v>72</v>
@@ -15556,11 +15391,11 @@
       <c r="A385" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B385" s="2" t="s">
-        <v>741</v>
+      <c r="B385" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D385" s="2">
         <v>0</v>
@@ -15587,11 +15422,11 @@
       <c r="A386" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B386" s="2" t="s">
-        <v>742</v>
+      <c r="B386" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D386" s="2">
         <v>88</v>
@@ -15619,11 +15454,11 @@
       <c r="A387" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B387" s="2" t="s">
-        <v>742</v>
+      <c r="B387" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D387" s="2">
         <v>0</v>
@@ -15650,11 +15485,11 @@
       <c r="A388" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B388" s="7" t="s">
-        <v>742</v>
+      <c r="B388" s="14" t="s">
+        <v>704</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D388" s="2">
         <v>0</v>
@@ -15681,11 +15516,11 @@
       <c r="A389" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B389" s="2" t="s">
-        <v>742</v>
+      <c r="B389" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>882</v>
+        <v>823</v>
       </c>
       <c r="D389" s="2">
         <v>0</v>
@@ -15712,11 +15547,11 @@
       <c r="A390" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B390" s="2" t="s">
-        <v>742</v>
+      <c r="B390" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>883</v>
+        <v>824</v>
       </c>
       <c r="D390" s="2">
         <v>8</v>
@@ -15744,11 +15579,11 @@
       <c r="A391" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B391" s="2" t="s">
-        <v>743</v>
+      <c r="B391" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>884</v>
+        <v>825</v>
       </c>
       <c r="D391" s="2">
         <v>0</v>
@@ -15775,7 +15610,7 @@
       <c r="A392" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B392" s="2"/>
+      <c r="B392" s="12"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2">
         <v>0</v>
@@ -15802,11 +15637,11 @@
       <c r="A393" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B393" s="2" t="s">
-        <v>743</v>
+      <c r="B393" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>885</v>
+        <v>826</v>
       </c>
       <c r="D393" s="2">
         <v>0</v>
@@ -15833,11 +15668,11 @@
       <c r="A394" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B394" s="2" t="s">
-        <v>743</v>
+      <c r="B394" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>886</v>
+        <v>827</v>
       </c>
       <c r="D394" s="2">
         <v>0</v>
@@ -15864,11 +15699,11 @@
       <c r="A395" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B395" s="2" t="s">
-        <v>743</v>
+      <c r="B395" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>887</v>
+        <v>828</v>
       </c>
       <c r="D395" s="2">
         <v>0</v>
@@ -15895,11 +15730,11 @@
       <c r="A396" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B396" s="2" t="s">
-        <v>743</v>
+      <c r="B396" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>888</v>
+        <v>829</v>
       </c>
       <c r="D396" s="2">
         <v>0</v>
@@ -15926,11 +15761,11 @@
       <c r="A397" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B397" s="2" t="s">
-        <v>743</v>
+      <c r="B397" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>888</v>
+        <v>829</v>
       </c>
       <c r="D397" s="2">
         <v>0</v>
@@ -15957,11 +15792,11 @@
       <c r="A398" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B398" s="2" t="s">
-        <v>743</v>
+      <c r="B398" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D398" s="2">
         <v>147</v>
@@ -15989,11 +15824,11 @@
       <c r="A399" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B399" s="2" t="s">
-        <v>743</v>
+      <c r="B399" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D399" s="2">
         <v>180</v>
@@ -16021,11 +15856,11 @@
       <c r="A400" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>743</v>
+      <c r="B400" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>889</v>
+        <v>830</v>
       </c>
       <c r="D400" s="2">
         <v>0</v>
@@ -16052,11 +15887,11 @@
       <c r="A401" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B401" s="2" t="s">
-        <v>744</v>
+      <c r="B401" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D401" s="2">
         <v>10</v>
@@ -16084,11 +15919,11 @@
       <c r="A402" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B402" s="2" t="s">
-        <v>744</v>
+      <c r="B402" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D402" s="2">
         <v>112</v>
@@ -16116,11 +15951,11 @@
       <c r="A403" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B403" s="2" t="s">
-        <v>744</v>
+      <c r="B403" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D403" s="2">
         <v>74</v>
@@ -16148,11 +15983,11 @@
       <c r="A404" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B404" s="7" t="s">
-        <v>745</v>
+      <c r="B404" s="14" t="s">
+        <v>707</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>890</v>
+        <v>831</v>
       </c>
       <c r="D404" s="8">
         <v>0</v>
@@ -16179,11 +16014,11 @@
       <c r="A405" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B405" s="2" t="s">
-        <v>745</v>
+      <c r="B405" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D405" s="2">
         <v>0</v>
@@ -16210,8 +16045,8 @@
       <c r="A406" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B406" s="2" t="s">
-        <v>745</v>
+      <c r="B406" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2">
@@ -16239,11 +16074,11 @@
       <c r="A407" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B407" s="7" t="s">
-        <v>743</v>
+      <c r="B407" s="14" t="s">
+        <v>705</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>891</v>
+        <v>832</v>
       </c>
       <c r="D407" s="2">
         <v>0</v>
@@ -16270,11 +16105,11 @@
       <c r="A408" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B408" s="2" t="s">
-        <v>745</v>
+      <c r="B408" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D408" s="2">
         <v>0</v>
@@ -16301,11 +16136,11 @@
       <c r="A409" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B409" s="2" t="s">
-        <v>745</v>
+      <c r="B409" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D409" s="2">
         <v>59</v>
@@ -16333,11 +16168,11 @@
       <c r="A410" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>745</v>
+      <c r="B410" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D410" s="2">
         <v>144</v>
@@ -16365,11 +16200,11 @@
       <c r="A411" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>745</v>
+      <c r="B411" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D411" s="2">
         <v>0</v>
@@ -16396,11 +16231,11 @@
       <c r="A412" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B412" s="2" t="s">
-        <v>745</v>
+      <c r="B412" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>892</v>
+        <v>833</v>
       </c>
       <c r="D412" s="2">
         <v>0</v>
@@ -16427,11 +16262,11 @@
       <c r="A413" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B413" s="2" t="s">
-        <v>746</v>
+      <c r="B413" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D413" s="2">
         <v>0</v>
@@ -16458,11 +16293,11 @@
       <c r="A414" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B414" s="2" t="s">
-        <v>746</v>
+      <c r="B414" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>893</v>
+        <v>834</v>
       </c>
       <c r="D414" s="2">
         <v>0</v>
@@ -16489,11 +16324,11 @@
       <c r="A415" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B415" s="2" t="s">
-        <v>746</v>
+      <c r="B415" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="D415" s="2">
         <v>0</v>
@@ -16520,11 +16355,11 @@
       <c r="A416" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B416" s="2" t="s">
-        <v>747</v>
+      <c r="B416" s="12" t="s">
+        <v>709</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>871</v>
+        <v>812</v>
       </c>
       <c r="D416" s="2">
         <v>0</v>
@@ -16551,11 +16386,11 @@
       <c r="A417" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B417" s="2" t="s">
-        <v>747</v>
+      <c r="B417" s="12" t="s">
+        <v>709</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D417" s="2">
         <v>207</v>
@@ -16583,11 +16418,11 @@
       <c r="A418" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B418" s="2" t="s">
-        <v>747</v>
+      <c r="B418" s="12" t="s">
+        <v>709</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D418" s="2">
         <v>1</v>
@@ -16615,11 +16450,11 @@
       <c r="A419" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B419" s="2" t="s">
-        <v>748</v>
+      <c r="B419" s="12" t="s">
+        <v>710</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D419" s="2">
         <v>174</v>
@@ -16647,11 +16482,11 @@
       <c r="A420" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B420" s="2" t="s">
-        <v>748</v>
+      <c r="B420" s="12" t="s">
+        <v>710</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>895</v>
+        <v>836</v>
       </c>
       <c r="D420" s="2">
         <v>0</v>
@@ -16678,11 +16513,11 @@
       <c r="A421" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B421" s="2" t="s">
-        <v>748</v>
+      <c r="B421" s="12" t="s">
+        <v>710</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D421" s="2">
         <v>13</v>
@@ -16710,11 +16545,11 @@
       <c r="A422" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B422" s="2" t="s">
-        <v>749</v>
+      <c r="B422" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>896</v>
+        <v>837</v>
       </c>
       <c r="D422" s="2">
         <v>0</v>
@@ -16741,11 +16576,11 @@
       <c r="A423" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>749</v>
+      <c r="B423" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>897</v>
+        <v>838</v>
       </c>
       <c r="D423" s="2">
         <v>0</v>
@@ -16772,11 +16607,11 @@
       <c r="A424" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B424" s="2" t="s">
-        <v>749</v>
+      <c r="B424" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>898</v>
+        <v>839</v>
       </c>
       <c r="D424" s="2">
         <v>0</v>
@@ -16803,11 +16638,11 @@
       <c r="A425" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B425" s="5" t="s">
-        <v>749</v>
+      <c r="B425" s="13" t="s">
+        <v>711</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D425" s="5">
         <v>0</v>
@@ -16834,11 +16669,11 @@
       <c r="A426" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B426" s="2" t="s">
-        <v>749</v>
+      <c r="B426" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="D426" s="2">
         <v>0</v>
@@ -16865,11 +16700,11 @@
       <c r="A427" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B427" s="2" t="s">
-        <v>749</v>
+      <c r="B427" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D427" s="2">
         <v>253</v>
@@ -16896,11 +16731,11 @@
       <c r="A428" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B428" s="2" t="s">
-        <v>749</v>
+      <c r="B428" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="D428" s="2">
         <v>0</v>
@@ -16927,11 +16762,11 @@
       <c r="A429" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B429" s="2" t="s">
-        <v>749</v>
+      <c r="B429" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D429" s="2">
         <v>0</v>
@@ -16958,11 +16793,11 @@
       <c r="A430" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B430" s="2" t="s">
-        <v>749</v>
+      <c r="B430" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D430" s="2">
         <v>97</v>
@@ -16990,11 +16825,11 @@
       <c r="A431" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>749</v>
+      <c r="B431" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D431" s="2">
         <v>73</v>
@@ -17022,11 +16857,11 @@
       <c r="A432" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>749</v>
+      <c r="B432" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D432" s="2">
         <v>11</v>
@@ -17054,11 +16889,11 @@
       <c r="A433" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B433" s="2" t="s">
-        <v>749</v>
+      <c r="B433" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D433" s="2">
         <v>0</v>
@@ -17085,11 +16920,11 @@
       <c r="A434" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B434" s="2" t="s">
-        <v>749</v>
+      <c r="B434" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D434" s="2">
         <v>190</v>
@@ -17117,11 +16952,11 @@
       <c r="A435" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B435" s="2" t="s">
-        <v>749</v>
+      <c r="B435" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D435" s="2">
         <v>0</v>
@@ -17148,11 +16983,11 @@
       <c r="A436" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B436" s="2" t="s">
-        <v>749</v>
+      <c r="B436" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>901</v>
+        <v>842</v>
       </c>
       <c r="D436" s="2">
         <v>96</v>
@@ -17180,11 +17015,11 @@
       <c r="A437" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B437" s="2" t="s">
-        <v>749</v>
+      <c r="B437" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D437" s="2">
         <v>226</v>
@@ -17212,11 +17047,11 @@
       <c r="A438" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B438" s="2" t="s">
-        <v>749</v>
+      <c r="B438" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D438" s="2">
         <v>0</v>
@@ -17243,11 +17078,11 @@
       <c r="A439" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B439" s="2" t="s">
-        <v>749</v>
+      <c r="B439" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>901</v>
+        <v>842</v>
       </c>
       <c r="D439" s="2">
         <v>0</v>
@@ -17274,11 +17109,11 @@
       <c r="A440" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B440" s="2" t="s">
-        <v>749</v>
+      <c r="B440" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D440" s="2">
         <v>81</v>
@@ -17306,11 +17141,11 @@
       <c r="A441" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B441" s="2" t="s">
-        <v>749</v>
+      <c r="B441" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>871</v>
+        <v>812</v>
       </c>
       <c r="D441" s="2">
         <v>0</v>
@@ -17337,11 +17172,11 @@
       <c r="A442" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B442" s="2" t="s">
-        <v>749</v>
+      <c r="B442" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>831</v>
+        <v>772</v>
       </c>
       <c r="D442" s="2">
         <v>7</v>
@@ -17369,11 +17204,11 @@
       <c r="A443" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B443" s="2" t="s">
-        <v>701</v>
+      <c r="B443" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>902</v>
+        <v>843</v>
       </c>
       <c r="D443" s="2">
         <v>0</v>
@@ -17400,11 +17235,11 @@
       <c r="A444" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B444" s="7" t="s">
-        <v>750</v>
+      <c r="B444" s="14" t="s">
+        <v>712</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>903</v>
+        <v>844</v>
       </c>
       <c r="D444" s="7">
         <v>0</v>
@@ -17431,11 +17266,11 @@
       <c r="A445" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B445" s="7" t="s">
-        <v>750</v>
+      <c r="B445" s="14" t="s">
+        <v>712</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>903</v>
+        <v>844</v>
       </c>
       <c r="D445" s="7">
         <v>0</v>
@@ -17462,11 +17297,11 @@
       <c r="A446" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B446" s="2" t="s">
-        <v>749</v>
+      <c r="B446" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>882</v>
+        <v>823</v>
       </c>
       <c r="D446" s="2">
         <v>0</v>
@@ -17493,11 +17328,11 @@
       <c r="A447" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B447" s="2" t="s">
-        <v>741</v>
+      <c r="B447" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D447" s="2">
         <v>48</v>
@@ -17525,11 +17360,11 @@
       <c r="A448" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B448" s="2" t="s">
-        <v>751</v>
+      <c r="B448" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D448" s="2">
         <v>0</v>
@@ -17556,11 +17391,11 @@
       <c r="A449" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B449" s="2" t="s">
-        <v>751</v>
+      <c r="B449" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D449" s="2">
         <v>108</v>
@@ -17588,11 +17423,11 @@
       <c r="A450" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B450" s="2" t="s">
-        <v>751</v>
+      <c r="B450" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D450" s="2">
         <v>160</v>
@@ -17620,11 +17455,11 @@
       <c r="A451" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B451" s="2" t="s">
-        <v>751</v>
+      <c r="B451" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D451" s="2">
         <v>158</v>
@@ -17652,11 +17487,11 @@
       <c r="A452" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B452" s="2" t="s">
-        <v>751</v>
+      <c r="B452" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D452" s="2">
         <v>119</v>
@@ -17684,11 +17519,11 @@
       <c r="A453" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B453" s="2" t="s">
-        <v>751</v>
+      <c r="B453" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D453" s="2">
         <v>0</v>
@@ -17715,11 +17550,11 @@
       <c r="A454" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B454" s="2" t="s">
-        <v>751</v>
+      <c r="B454" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D454" s="2">
         <v>0</v>
@@ -17746,11 +17581,11 @@
       <c r="A455" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B455" s="2" t="s">
-        <v>751</v>
+      <c r="B455" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>904</v>
+        <v>845</v>
       </c>
       <c r="D455" s="2">
         <v>0</v>
@@ -17777,11 +17612,11 @@
       <c r="A456" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B456" s="2" t="s">
-        <v>751</v>
+      <c r="B456" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D456" s="2">
         <v>0</v>
@@ -17808,11 +17643,11 @@
       <c r="A457" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B457" s="2" t="s">
-        <v>752</v>
+      <c r="B457" s="12" t="s">
+        <v>714</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>905</v>
+        <v>846</v>
       </c>
       <c r="D457" s="2">
         <v>0</v>
@@ -17839,11 +17674,11 @@
       <c r="A458" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B458" s="2" t="s">
-        <v>752</v>
+      <c r="B458" s="12" t="s">
+        <v>714</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D458" s="2">
         <v>100</v>
@@ -17871,11 +17706,11 @@
       <c r="A459" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B459" s="2" t="s">
-        <v>752</v>
+      <c r="B459" s="12" t="s">
+        <v>714</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D459" s="2">
         <v>150</v>
@@ -17903,11 +17738,11 @@
       <c r="A460" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B460" s="2" t="s">
-        <v>752</v>
+      <c r="B460" s="12" t="s">
+        <v>714</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D460" s="2">
         <v>64</v>
@@ -17935,11 +17770,11 @@
       <c r="A461" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B461" s="2" t="s">
-        <v>752</v>
+      <c r="B461" s="12" t="s">
+        <v>714</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>906</v>
+        <v>847</v>
       </c>
       <c r="D461" s="2">
         <v>0</v>
@@ -17966,11 +17801,11 @@
       <c r="A462" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B462" s="2" t="s">
-        <v>752</v>
+      <c r="B462" s="12" t="s">
+        <v>714</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D462" s="2">
         <v>65</v>
@@ -17998,11 +17833,11 @@
       <c r="A463" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B463" s="2" t="s">
-        <v>752</v>
+      <c r="B463" s="12" t="s">
+        <v>714</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D463" s="2">
         <v>47</v>
@@ -18030,11 +17865,11 @@
       <c r="A464" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="12" t="s">
         <v>678</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="D464" s="2">
         <v>0</v>
@@ -18061,11 +17896,11 @@
       <c r="A465" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" s="12" t="s">
         <v>678</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D465" s="2">
         <v>0</v>
@@ -18092,11 +17927,11 @@
       <c r="A466" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B466" s="2" t="s">
-        <v>752</v>
+      <c r="B466" s="12" t="s">
+        <v>714</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D466" s="2">
         <v>65</v>
@@ -18124,11 +17959,11 @@
       <c r="A467" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B467" s="2" t="s">
-        <v>753</v>
+      <c r="B467" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D467" s="2">
         <v>0</v>
@@ -18155,11 +17990,11 @@
       <c r="A468" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>753</v>
+      <c r="B468" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D468" s="2">
         <v>0</v>
@@ -18186,11 +18021,11 @@
       <c r="A469" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B469" s="2" t="s">
-        <v>753</v>
+      <c r="B469" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
       <c r="D469" s="2">
         <v>0</v>
@@ -18217,11 +18052,11 @@
       <c r="A470" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B470" s="2" t="s">
-        <v>753</v>
+      <c r="B470" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
       <c r="D470" s="2">
         <v>0</v>
@@ -18248,11 +18083,11 @@
       <c r="A471" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>743</v>
+      <c r="B471" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
       <c r="D471" s="2">
         <v>0</v>
@@ -18279,11 +18114,11 @@
       <c r="A472" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>743</v>
+      <c r="B472" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D472" s="2">
         <v>112</v>
@@ -18311,11 +18146,11 @@
       <c r="A473" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B473" s="2" t="s">
-        <v>743</v>
+      <c r="B473" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>909</v>
+        <v>850</v>
       </c>
       <c r="D473" s="2">
         <v>0</v>
@@ -18342,11 +18177,11 @@
       <c r="A474" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B474" s="2" t="s">
-        <v>743</v>
+      <c r="B474" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>910</v>
+        <v>851</v>
       </c>
       <c r="D474" s="2">
         <v>0</v>
@@ -18373,11 +18208,11 @@
       <c r="A475" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B475" s="2" t="s">
-        <v>743</v>
+      <c r="B475" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>911</v>
+        <v>852</v>
       </c>
       <c r="D475" s="2">
         <v>0</v>
@@ -18404,11 +18239,11 @@
       <c r="A476" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B476" s="2" t="s">
-        <v>743</v>
+      <c r="B476" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>912</v>
+        <v>853</v>
       </c>
       <c r="D476" s="2">
         <v>0</v>
@@ -18435,11 +18270,11 @@
       <c r="A477" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B477" s="2" t="s">
-        <v>743</v>
+      <c r="B477" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>913</v>
+        <v>854</v>
       </c>
       <c r="D477" s="2">
         <v>0</v>
@@ -18466,11 +18301,11 @@
       <c r="A478" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B478" s="2" t="s">
-        <v>743</v>
+      <c r="B478" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -18493,11 +18328,11 @@
       <c r="A479" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B479" s="2" t="s">
-        <v>743</v>
+      <c r="B479" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D479" s="2">
         <v>53</v>
@@ -18525,11 +18360,11 @@
       <c r="A480" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B480" s="2" t="s">
-        <v>743</v>
+      <c r="B480" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D480" s="2">
         <v>0</v>
@@ -18556,11 +18391,11 @@
       <c r="A481" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B481" s="2" t="s">
-        <v>743</v>
+      <c r="B481" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>914</v>
+        <v>855</v>
       </c>
       <c r="D481" s="2">
         <v>0</v>
@@ -18587,11 +18422,11 @@
       <c r="A482" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B482" s="2" t="s">
-        <v>743</v>
+      <c r="B482" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D482" s="2">
         <v>61</v>
@@ -18619,11 +18454,11 @@
       <c r="A483" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B483" s="2" t="s">
-        <v>753</v>
+      <c r="B483" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D483" s="2">
         <v>142</v>
@@ -18651,11 +18486,11 @@
       <c r="A484" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B484" s="2" t="s">
-        <v>753</v>
+      <c r="B484" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D484" s="2">
         <v>162</v>
@@ -18683,11 +18518,11 @@
       <c r="A485" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B485" s="2" t="s">
-        <v>753</v>
+      <c r="B485" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>915</v>
+        <v>856</v>
       </c>
       <c r="D485" s="2">
         <v>0</v>
@@ -18714,11 +18549,11 @@
       <c r="A486" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B486" s="2" t="s">
-        <v>753</v>
+      <c r="B486" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D486" s="2">
         <v>83</v>
@@ -18746,11 +18581,11 @@
       <c r="A487" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B487" s="2" t="s">
-        <v>753</v>
+      <c r="B487" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D487" s="2">
         <v>161</v>
@@ -18778,11 +18613,11 @@
       <c r="A488" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B488" s="2" t="s">
-        <v>754</v>
+      <c r="B488" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>916</v>
+        <v>857</v>
       </c>
       <c r="D488" s="2">
         <v>0</v>
@@ -18809,11 +18644,11 @@
       <c r="A489" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>754</v>
+      <c r="B489" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D489" s="2">
         <v>104</v>
@@ -18841,11 +18676,11 @@
       <c r="A490" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B490" s="2" t="s">
-        <v>754</v>
+      <c r="B490" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D490" s="2">
         <v>0</v>
@@ -18872,11 +18707,11 @@
       <c r="A491" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B491" s="2" t="s">
-        <v>754</v>
+      <c r="B491" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>917</v>
+        <v>858</v>
       </c>
       <c r="D491" s="2">
         <v>0</v>
@@ -18903,11 +18738,11 @@
       <c r="A492" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="B492" s="2" t="s">
-        <v>755</v>
+      <c r="B492" s="12" t="s">
+        <v>717</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D492" s="2">
         <v>0</v>
@@ -18934,11 +18769,11 @@
       <c r="A493" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B493" s="2" t="s">
-        <v>756</v>
+      <c r="B493" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D493" s="2">
         <v>16</v>
@@ -18966,11 +18801,11 @@
       <c r="A494" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B494" s="2" t="s">
-        <v>756</v>
+      <c r="B494" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D494" s="2">
         <v>150</v>
@@ -18998,11 +18833,11 @@
       <c r="A495" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B495" s="2" t="s">
-        <v>756</v>
+      <c r="B495" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>866</v>
+        <v>807</v>
       </c>
       <c r="D495" s="2">
         <v>0</v>
@@ -19029,11 +18864,11 @@
       <c r="A496" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B496" s="2" t="s">
-        <v>756</v>
+      <c r="B496" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D496" s="2">
         <v>101</v>
@@ -19061,11 +18896,11 @@
       <c r="A497" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B497" s="2" t="s">
-        <v>756</v>
+      <c r="B497" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D497" s="2">
         <v>66</v>
@@ -19093,11 +18928,11 @@
       <c r="A498" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B498" s="2" t="s">
-        <v>756</v>
+      <c r="B498" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D498" s="2">
         <v>5</v>
@@ -19125,11 +18960,11 @@
       <c r="A499" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B499" s="2" t="s">
-        <v>757</v>
+      <c r="B499" s="12" t="s">
+        <v>719</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D499" s="2">
         <v>62</v>
@@ -19157,11 +18992,11 @@
       <c r="A500" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B500" s="2" t="s">
-        <v>754</v>
+      <c r="B500" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
       <c r="D500" s="2">
         <v>0</v>
@@ -19188,11 +19023,11 @@
       <c r="A501" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B501" s="2" t="s">
-        <v>754</v>
+      <c r="B501" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D501" s="2">
         <v>160</v>
@@ -19220,11 +19055,11 @@
       <c r="A502" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B502" s="2" t="s">
-        <v>754</v>
+      <c r="B502" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D502" s="2">
         <v>160</v>
@@ -19252,11 +19087,11 @@
       <c r="A503" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B503" s="2" t="s">
-        <v>755</v>
+      <c r="B503" s="12" t="s">
+        <v>717</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D503" s="2">
         <v>203</v>
@@ -19284,11 +19119,11 @@
       <c r="A504" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B504" s="2" t="s">
-        <v>754</v>
+      <c r="B504" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>918</v>
+        <v>859</v>
       </c>
       <c r="D504" s="2">
         <v>0</v>
@@ -19315,11 +19150,11 @@
       <c r="A505" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B505" s="2" t="s">
-        <v>754</v>
+      <c r="B505" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D505" s="2">
         <v>2</v>
@@ -19347,11 +19182,11 @@
       <c r="A506" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B506" s="2" t="s">
-        <v>754</v>
+      <c r="B506" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D506" s="2">
         <v>0</v>
@@ -19378,11 +19213,11 @@
       <c r="A507" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B507" s="2" t="s">
-        <v>754</v>
+      <c r="B507" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D507" s="2">
         <v>0</v>
@@ -19409,11 +19244,11 @@
       <c r="A508" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B508" s="2" t="s">
-        <v>754</v>
+      <c r="B508" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D508" s="2">
         <v>0</v>
@@ -19440,11 +19275,11 @@
       <c r="A509" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B509" s="2" t="s">
-        <v>754</v>
+      <c r="B509" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D509" s="2">
         <v>0</v>
@@ -19471,11 +19306,11 @@
       <c r="A510" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B510" s="2" t="s">
-        <v>758</v>
+      <c r="B510" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D510" s="2">
         <v>0</v>
@@ -19502,11 +19337,11 @@
       <c r="A511" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B511" s="2" t="s">
-        <v>758</v>
+      <c r="B511" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D511" s="2">
         <v>0</v>
@@ -19533,11 +19368,11 @@
       <c r="A512" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B512" s="2" t="s">
-        <v>758</v>
+      <c r="B512" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>919</v>
+        <v>860</v>
       </c>
       <c r="D512" s="2">
         <v>113</v>
@@ -19565,11 +19400,11 @@
       <c r="A513" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B513" s="2" t="s">
-        <v>758</v>
+      <c r="B513" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D513" s="2">
         <v>157</v>
@@ -19597,11 +19432,11 @@
       <c r="A514" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B514" s="2" t="s">
-        <v>758</v>
+      <c r="B514" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D514" s="2">
         <v>89</v>
@@ -19629,11 +19464,11 @@
       <c r="A515" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B515" s="2" t="s">
-        <v>758</v>
+      <c r="B515" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D515" s="2">
         <v>163</v>
@@ -19661,11 +19496,11 @@
       <c r="A516" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B516" s="2" t="s">
-        <v>758</v>
+      <c r="B516" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D516" s="2">
         <v>233</v>
@@ -19693,11 +19528,11 @@
       <c r="A517" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B517" s="2" t="s">
-        <v>758</v>
+      <c r="B517" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D517" s="2">
         <v>170</v>
@@ -19725,11 +19560,11 @@
       <c r="A518" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B518" s="2" t="s">
-        <v>758</v>
+      <c r="B518" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>917</v>
+        <v>858</v>
       </c>
       <c r="D518" s="2">
         <v>0</v>
@@ -19756,11 +19591,11 @@
       <c r="A519" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B519" s="2" t="s">
-        <v>758</v>
+      <c r="B519" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>920</v>
+        <v>861</v>
       </c>
       <c r="D519" s="2">
         <v>0</v>
@@ -19787,11 +19622,11 @@
       <c r="A520" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B520" s="2" t="s">
-        <v>758</v>
+      <c r="B520" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D520" s="2">
         <v>0</v>
@@ -19818,11 +19653,11 @@
       <c r="A521" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B521" s="2" t="s">
-        <v>758</v>
+      <c r="B521" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D521" s="2">
         <v>31</v>
@@ -19850,11 +19685,11 @@
       <c r="A522" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="B522" s="2" t="s">
-        <v>758</v>
+      <c r="B522" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>921</v>
+        <v>862</v>
       </c>
       <c r="D522" s="2">
         <v>0</v>
@@ -19881,11 +19716,11 @@
       <c r="A523" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B523" s="2" t="s">
-        <v>758</v>
+      <c r="B523" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>922</v>
+        <v>863</v>
       </c>
       <c r="D523" s="2">
         <v>0</v>
@@ -19912,11 +19747,11 @@
       <c r="A524" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="B524" s="2" t="s">
-        <v>759</v>
+      <c r="B524" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>923</v>
+        <v>864</v>
       </c>
       <c r="D524" s="2">
         <v>0</v>
@@ -19943,11 +19778,11 @@
       <c r="A525" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B525" s="2" t="s">
-        <v>759</v>
+      <c r="B525" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D525" s="2">
         <v>5</v>
@@ -19975,11 +19810,11 @@
       <c r="A526" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="B526" s="2" t="s">
-        <v>759</v>
+      <c r="B526" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>924</v>
+        <v>865</v>
       </c>
       <c r="D526" s="2">
         <v>0</v>
@@ -20006,11 +19841,11 @@
       <c r="A527" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>759</v>
+      <c r="B527" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D527" s="2">
         <v>52</v>
@@ -20038,11 +19873,11 @@
       <c r="A528" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>759</v>
+      <c r="B528" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D528" s="2">
         <v>0</v>
@@ -20069,11 +19904,11 @@
       <c r="A529" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="B529" s="2" t="s">
-        <v>759</v>
+      <c r="B529" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D529" s="2">
         <v>186</v>
@@ -20101,11 +19936,11 @@
       <c r="A530" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B530" s="2" t="s">
-        <v>759</v>
+      <c r="B530" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D530" s="2">
         <v>190</v>
@@ -20133,11 +19968,11 @@
       <c r="A531" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B531" s="2" t="s">
-        <v>759</v>
+      <c r="B531" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D531" s="2">
         <v>64</v>
@@ -20165,11 +20000,11 @@
       <c r="A532" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B532" s="2" t="s">
-        <v>759</v>
+      <c r="B532" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>917</v>
+        <v>858</v>
       </c>
       <c r="D532" s="2">
         <v>0</v>
@@ -20196,11 +20031,11 @@
       <c r="A533" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B533" s="2" t="s">
-        <v>759</v>
+      <c r="B533" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D533" s="2">
         <v>51</v>
@@ -20228,11 +20063,11 @@
       <c r="A534" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="B534" s="2" t="s">
-        <v>759</v>
+      <c r="B534" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D534" s="2">
         <v>131</v>
@@ -20260,11 +20095,11 @@
       <c r="A535" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="B535" s="2" t="s">
-        <v>759</v>
+      <c r="B535" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D535" s="2">
         <v>120</v>
@@ -20292,11 +20127,11 @@
       <c r="A536" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B536" s="2" t="s">
-        <v>759</v>
+      <c r="B536" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D536" s="2">
         <v>0</v>
@@ -20323,11 +20158,11 @@
       <c r="A537" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B537" s="2" t="s">
-        <v>759</v>
+      <c r="B537" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>925</v>
+        <v>866</v>
       </c>
       <c r="D537" s="2">
         <v>0</v>
@@ -20354,11 +20189,11 @@
       <c r="A538" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B538" s="2" t="s">
-        <v>759</v>
+      <c r="B538" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>925</v>
+        <v>866</v>
       </c>
       <c r="D538" s="2">
         <v>0</v>
@@ -20385,11 +20220,11 @@
       <c r="A539" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="B539" s="2" t="s">
-        <v>759</v>
+      <c r="B539" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>925</v>
+        <v>866</v>
       </c>
       <c r="D539" s="2">
         <v>0</v>
@@ -20416,11 +20251,11 @@
       <c r="A540" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B540" s="2" t="s">
-        <v>759</v>
+      <c r="B540" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D540" s="2">
         <v>0</v>
@@ -20447,11 +20282,11 @@
       <c r="A541" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B541" s="2" t="s">
-        <v>759</v>
+      <c r="B541" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D541" s="2">
         <v>51</v>
@@ -20479,11 +20314,11 @@
       <c r="A542" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="B542" s="2" t="s">
-        <v>759</v>
+      <c r="B542" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D542" s="2">
         <v>131</v>
@@ -20511,11 +20346,11 @@
       <c r="A543" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="B543" s="2" t="s">
-        <v>759</v>
+      <c r="B543" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D543" s="2">
         <v>120</v>
@@ -20543,11 +20378,11 @@
       <c r="A544" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B544" s="2" t="s">
-        <v>759</v>
+      <c r="B544" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D544" s="2">
         <v>0</v>
@@ -20574,11 +20409,11 @@
       <c r="A545" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B545" s="2" t="s">
-        <v>759</v>
+      <c r="B545" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>925</v>
+        <v>866</v>
       </c>
       <c r="D545" s="2">
         <v>0</v>
@@ -20605,11 +20440,11 @@
       <c r="A546" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B546" s="2" t="s">
-        <v>759</v>
+      <c r="B546" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>925</v>
+        <v>866</v>
       </c>
       <c r="D546" s="2">
         <v>0</v>
@@ -20636,11 +20471,11 @@
       <c r="A547" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="B547" s="2" t="s">
-        <v>759</v>
+      <c r="B547" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>925</v>
+        <v>866</v>
       </c>
       <c r="D547" s="2">
         <v>0</v>
@@ -20667,11 +20502,11 @@
       <c r="A548" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B548" s="2" t="s">
-        <v>759</v>
+      <c r="B548" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D548" s="2">
         <v>218</v>
@@ -20699,11 +20534,11 @@
       <c r="A549" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B549" s="2" t="s">
-        <v>760</v>
+      <c r="B549" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D549" s="2">
         <v>141</v>
@@ -20731,11 +20566,11 @@
       <c r="A550" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B550" s="2" t="s">
-        <v>760</v>
+      <c r="B550" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>926</v>
+        <v>867</v>
       </c>
       <c r="D550" s="2">
         <v>0</v>
@@ -20762,11 +20597,11 @@
       <c r="A551" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="B551" s="2" t="s">
-        <v>760</v>
+      <c r="B551" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D551" s="2">
         <v>164</v>
@@ -20794,11 +20629,11 @@
       <c r="A552" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="B552" s="2" t="s">
-        <v>760</v>
+      <c r="B552" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D552" s="2">
         <v>79</v>
@@ -20826,11 +20661,11 @@
       <c r="A553" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="B553" s="2" t="s">
-        <v>760</v>
+      <c r="B553" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>918</v>
+        <v>859</v>
       </c>
       <c r="D553" s="2">
         <v>0</v>
@@ -20857,11 +20692,11 @@
       <c r="A554" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B554" s="2" t="s">
-        <v>760</v>
+      <c r="B554" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D554" s="2">
         <v>0</v>
@@ -20888,8 +20723,8 @@
       <c r="A555" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B555" s="5" t="s">
-        <v>761</v>
+      <c r="B555" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C555" s="5"/>
       <c r="D555" s="2">
@@ -20917,11 +20752,11 @@
       <c r="A556" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B556" s="5" t="s">
-        <v>761</v>
+      <c r="B556" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C556" s="5" t="s">
-        <v>927</v>
+        <v>868</v>
       </c>
       <c r="D556" s="5">
         <v>0</v>
@@ -20948,11 +20783,11 @@
       <c r="A557" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B557" s="5" t="s">
-        <v>761</v>
+      <c r="B557" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>928</v>
+        <v>869</v>
       </c>
       <c r="D557" s="5">
         <v>0</v>
@@ -20979,11 +20814,11 @@
       <c r="A558" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B558" s="5" t="s">
-        <v>761</v>
+      <c r="B558" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C558" s="5" t="s">
-        <v>929</v>
+        <v>870</v>
       </c>
       <c r="D558" s="5">
         <v>0</v>
@@ -21010,11 +20845,11 @@
       <c r="A559" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B559" s="5" t="s">
-        <v>722</v>
+      <c r="B559" s="13" t="s">
+        <v>698</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>930</v>
+        <v>871</v>
       </c>
       <c r="D559" s="5">
         <v>0</v>
@@ -21041,11 +20876,11 @@
       <c r="A560" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B560" s="5" t="s">
-        <v>722</v>
+      <c r="B560" s="13" t="s">
+        <v>698</v>
       </c>
       <c r="C560" s="5" t="s">
-        <v>931</v>
+        <v>872</v>
       </c>
       <c r="D560" s="5">
         <v>0</v>
@@ -21072,11 +20907,11 @@
       <c r="A561" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B561" s="7" t="s">
-        <v>762</v>
+      <c r="B561" s="14" t="s">
+        <v>723</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>932</v>
+        <v>873</v>
       </c>
       <c r="D561" s="2">
         <v>0</v>
@@ -21103,11 +20938,11 @@
       <c r="A562" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B562" s="2" t="s">
-        <v>762</v>
+      <c r="B562" s="12" t="s">
+        <v>723</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D562" s="2">
         <v>0</v>
@@ -21134,11 +20969,11 @@
       <c r="A563" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B563" s="2" t="s">
-        <v>763</v>
+      <c r="B563" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D563" s="2">
         <v>120</v>
@@ -21166,11 +21001,11 @@
       <c r="A564" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B564" s="2" t="s">
-        <v>764</v>
+      <c r="B564" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D564" s="2">
         <v>185</v>
@@ -21198,9 +21033,9 @@
       <c r="A565" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B565" s="2"/>
+      <c r="B565" s="12"/>
       <c r="C565" s="2" t="s">
-        <v>933</v>
+        <v>874</v>
       </c>
       <c r="D565" s="2">
         <v>0</v>
@@ -21227,9 +21062,9 @@
       <c r="A566" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B566" s="2"/>
+      <c r="B566" s="12"/>
       <c r="C566" s="2" t="s">
-        <v>934</v>
+        <v>875</v>
       </c>
       <c r="D566" s="2">
         <v>0</v>
@@ -21256,11 +21091,11 @@
       <c r="A567" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B567" s="2" t="s">
-        <v>762</v>
+      <c r="B567" s="12" t="s">
+        <v>723</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D567" s="2">
         <v>54</v>
@@ -21288,11 +21123,11 @@
       <c r="A568" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B568" s="2" t="s">
-        <v>762</v>
+      <c r="B568" s="12" t="s">
+        <v>723</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D568" s="2">
         <v>172</v>
@@ -21320,11 +21155,11 @@
       <c r="A569" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B569" s="2" t="s">
-        <v>762</v>
+      <c r="B569" s="12" t="s">
+        <v>723</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D569" s="2">
         <v>36</v>
@@ -21352,11 +21187,11 @@
       <c r="A570" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B570" s="2" t="s">
-        <v>722</v>
+      <c r="B570" s="12" t="s">
+        <v>698</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D570" s="2">
         <v>26</v>
@@ -21384,11 +21219,11 @@
       <c r="A571" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B571" s="2" t="s">
-        <v>765</v>
+      <c r="B571" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>935</v>
+        <v>876</v>
       </c>
       <c r="D571" s="2">
         <v>0</v>
@@ -21415,11 +21250,11 @@
       <c r="A572" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B572" s="2" t="s">
-        <v>765</v>
+      <c r="B572" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D572" s="2">
         <v>0</v>
@@ -21446,11 +21281,11 @@
       <c r="A573" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B573" s="5" t="s">
-        <v>766</v>
+      <c r="B573" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>860</v>
+        <v>801</v>
       </c>
       <c r="D573" s="5">
         <v>0</v>
@@ -21477,11 +21312,11 @@
       <c r="A574" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B574" s="2" t="s">
-        <v>767</v>
+      <c r="B574" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D574" s="2">
         <v>239</v>
@@ -21508,11 +21343,11 @@
       <c r="A575" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="B575" s="2" t="s">
-        <v>767</v>
+      <c r="B575" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D575" s="2">
         <v>292</v>
@@ -21540,11 +21375,11 @@
       <c r="A576" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B576" s="2" t="s">
-        <v>767</v>
+      <c r="B576" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D576" s="2">
         <v>22</v>
@@ -21572,11 +21407,11 @@
       <c r="A577" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B577" s="2" t="s">
-        <v>768</v>
+      <c r="B577" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D577" s="2">
         <v>288</v>
@@ -21604,11 +21439,11 @@
       <c r="A578" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B578" s="2" t="s">
-        <v>709</v>
+      <c r="B578" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>936</v>
+        <v>877</v>
       </c>
       <c r="D578" s="2">
         <v>0</v>
@@ -21635,11 +21470,11 @@
       <c r="A579" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B579" s="2" t="s">
-        <v>769</v>
+      <c r="B579" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D579" s="2">
         <v>0</v>
@@ -21666,11 +21501,11 @@
       <c r="A580" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B580" s="2" t="s">
-        <v>770</v>
+      <c r="B580" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>937</v>
+        <v>878</v>
       </c>
       <c r="D580" s="2">
         <v>0</v>
@@ -21697,11 +21532,11 @@
       <c r="A581" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B581" s="2" t="s">
-        <v>771</v>
+      <c r="B581" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D581" s="2">
         <v>0</v>
@@ -21728,8 +21563,8 @@
       <c r="A582" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B582" s="2" t="s">
-        <v>772</v>
+      <c r="B582" s="12" t="s">
+        <v>725</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2">
@@ -21757,11 +21592,11 @@
       <c r="A583" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="B583" s="2" t="s">
-        <v>735</v>
+      <c r="B583" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D583" s="2">
         <v>269</v>
@@ -21788,11 +21623,11 @@
       <c r="A584" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="B584" s="2" t="s">
-        <v>773</v>
+      <c r="B584" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D584" s="2">
         <v>190</v>
@@ -21820,11 +21655,11 @@
       <c r="A585" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B585" s="2" t="s">
-        <v>774</v>
+      <c r="B585" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D585" s="2">
         <v>183</v>
@@ -21852,11 +21687,11 @@
       <c r="A586" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="B586" s="2" t="s">
-        <v>735</v>
+      <c r="B586" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D586" s="2">
         <v>273</v>
@@ -21883,11 +21718,11 @@
       <c r="A587" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="B587" s="2" t="s">
-        <v>735</v>
+      <c r="B587" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>938</v>
+        <v>879</v>
       </c>
       <c r="D587" s="2">
         <v>0</v>
@@ -21914,11 +21749,11 @@
       <c r="A588" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B588" s="2" t="s">
-        <v>735</v>
+      <c r="B588" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>939</v>
+        <v>880</v>
       </c>
       <c r="D588" s="2">
         <v>0</v>
@@ -21945,11 +21780,11 @@
       <c r="A589" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B589" s="2" t="s">
-        <v>735</v>
+      <c r="B589" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D589" s="2">
         <v>104</v>
@@ -21977,11 +21812,11 @@
       <c r="A590" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B590" s="2" t="s">
-        <v>775</v>
+      <c r="B590" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>882</v>
+        <v>823</v>
       </c>
       <c r="D590" s="2">
         <v>0</v>
@@ -22008,11 +21843,11 @@
       <c r="A591" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="B591" s="2" t="s">
-        <v>775</v>
+      <c r="B591" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D591" s="2">
         <v>49</v>
@@ -22040,9 +21875,9 @@
       <c r="A592" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B592" s="7"/>
+      <c r="B592" s="14"/>
       <c r="C592" s="7" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D592" s="2">
         <v>0</v>
@@ -22069,11 +21904,11 @@
       <c r="A593" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="B593" s="2" t="s">
-        <v>776</v>
+      <c r="B593" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>940</v>
+        <v>881</v>
       </c>
       <c r="D593" s="2">
         <v>0</v>
@@ -22100,11 +21935,11 @@
       <c r="A594" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B594" s="2" t="s">
-        <v>777</v>
+      <c r="B594" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>941</v>
+        <v>882</v>
       </c>
       <c r="D594" s="2">
         <v>0</v>
@@ -22131,11 +21966,11 @@
       <c r="A595" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="B595" s="2" t="s">
-        <v>735</v>
+      <c r="B595" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D595" s="2">
         <v>283</v>
@@ -22162,11 +21997,11 @@
       <c r="A596" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B596" s="2" t="s">
-        <v>778</v>
+      <c r="B596" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D596" s="2">
         <v>206</v>
@@ -22193,11 +22028,11 @@
       <c r="A597" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="B597" s="2" t="s">
-        <v>779</v>
+      <c r="B597" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D597" s="2">
         <v>50</v>
@@ -22225,11 +22060,11 @@
       <c r="A598" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B598" s="2" t="s">
-        <v>780</v>
+      <c r="B598" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D598" s="2">
         <v>226</v>
@@ -22256,11 +22091,11 @@
       <c r="A599" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B599" s="2" t="s">
-        <v>781</v>
+      <c r="B599" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>942</v>
+        <v>883</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
@@ -22283,11 +22118,11 @@
       <c r="A600" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B600" s="2" t="s">
-        <v>782</v>
+      <c r="B600" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D600" s="2">
         <v>49</v>
@@ -22315,11 +22150,11 @@
       <c r="A601" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B601" s="2" t="s">
-        <v>781</v>
+      <c r="B601" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" s="2">
@@ -22344,11 +22179,11 @@
       <c r="A602" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B602" s="2" t="s">
-        <v>783</v>
+      <c r="B602" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>943</v>
+        <v>884</v>
       </c>
       <c r="D602" s="2">
         <v>0</v>
@@ -22375,11 +22210,11 @@
       <c r="A603" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B603" s="2" t="s">
-        <v>782</v>
+      <c r="B603" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>944</v>
+        <v>885</v>
       </c>
       <c r="D603" s="2">
         <v>0</v>
@@ -22406,11 +22241,11 @@
       <c r="A604" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B604" s="2" t="s">
-        <v>783</v>
+      <c r="B604" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D604" s="2">
         <v>0</v>
@@ -22437,11 +22272,11 @@
       <c r="A605" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="B605" s="2" t="s">
-        <v>783</v>
+      <c r="B605" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D605" s="2">
         <v>0</v>
@@ -22468,11 +22303,11 @@
       <c r="A606" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="B606" s="2" t="s">
-        <v>783</v>
+      <c r="B606" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>945</v>
+        <v>886</v>
       </c>
       <c r="D606" s="2">
         <v>0</v>
@@ -22499,11 +22334,11 @@
       <c r="A607" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B607" s="2" t="s">
-        <v>783</v>
+      <c r="B607" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D607" s="2">
         <v>0</v>
@@ -22530,11 +22365,11 @@
       <c r="A608" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="B608" s="2" t="s">
-        <v>783</v>
+      <c r="B608" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D608" s="2">
         <v>0</v>
@@ -22561,11 +22396,11 @@
       <c r="A609" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="B609" s="2" t="s">
-        <v>783</v>
+      <c r="B609" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D609" s="2">
         <v>91</v>
@@ -22593,11 +22428,11 @@
       <c r="A610" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="B610" s="2" t="s">
-        <v>783</v>
+      <c r="B610" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>866</v>
+        <v>807</v>
       </c>
       <c r="D610" s="2">
         <v>0</v>
@@ -22624,11 +22459,11 @@
       <c r="A611" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B611" s="2" t="s">
-        <v>783</v>
+      <c r="B611" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D611" s="2">
         <v>0</v>
@@ -22655,11 +22490,11 @@
       <c r="A612" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="B612" s="2" t="s">
-        <v>783</v>
+      <c r="B612" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D612" s="2">
         <v>0</v>
@@ -22686,11 +22521,11 @@
       <c r="A613" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B613" s="2" t="s">
-        <v>783</v>
+      <c r="B613" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D613" s="2">
         <v>102</v>
@@ -22718,11 +22553,11 @@
       <c r="A614" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B614" s="2" t="s">
-        <v>784</v>
+      <c r="B614" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>946</v>
+        <v>887</v>
       </c>
       <c r="D614" s="2">
         <v>1</v>
@@ -22750,11 +22585,11 @@
       <c r="A615" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B615" s="2" t="s">
-        <v>784</v>
+      <c r="B615" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>947</v>
+        <v>888</v>
       </c>
       <c r="D615" s="2">
         <v>0</v>
@@ -22781,11 +22616,11 @@
       <c r="A616" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="B616" s="2" t="s">
-        <v>784</v>
+      <c r="B616" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
       <c r="D616" s="2">
         <v>0</v>
@@ -22812,11 +22647,11 @@
       <c r="A617" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B617" s="2" t="s">
-        <v>785</v>
+      <c r="B617" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>948</v>
+        <v>889</v>
       </c>
       <c r="D617" s="2">
         <v>0</v>
@@ -22843,11 +22678,11 @@
       <c r="A618" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B618" s="2" t="s">
-        <v>785</v>
+      <c r="B618" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>949</v>
+        <v>890</v>
       </c>
       <c r="D618" s="2">
         <v>0</v>
@@ -22874,11 +22709,11 @@
       <c r="A619" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="B619" s="2" t="s">
-        <v>785</v>
+      <c r="B619" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>950</v>
+        <v>891</v>
       </c>
       <c r="D619" s="2">
         <v>0</v>
@@ -22905,11 +22740,11 @@
       <c r="A620" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B620" s="2" t="s">
-        <v>786</v>
+      <c r="B620" s="12" t="s">
+        <v>728</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>951</v>
+        <v>892</v>
       </c>
       <c r="D620" s="2">
         <v>0</v>
@@ -22936,11 +22771,11 @@
       <c r="A621" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B621" s="2" t="s">
-        <v>786</v>
+      <c r="B621" s="12" t="s">
+        <v>728</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D621" s="2">
         <v>94</v>
@@ -22968,11 +22803,11 @@
       <c r="A622" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B622" s="2" t="s">
-        <v>787</v>
+      <c r="B622" s="12" t="s">
+        <v>729</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D622" s="2">
         <v>65</v>
@@ -23000,11 +22835,11 @@
       <c r="A623" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="B623" s="2" t="s">
-        <v>787</v>
+      <c r="B623" s="12" t="s">
+        <v>729</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D623" s="2">
         <v>40</v>
@@ -23032,11 +22867,11 @@
       <c r="A624" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="B624" s="2" t="s">
-        <v>786</v>
+      <c r="B624" s="12" t="s">
+        <v>728</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D624" s="2">
         <v>40</v>
@@ -23064,11 +22899,11 @@
       <c r="A625" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="B625" s="2" t="s">
-        <v>786</v>
+      <c r="B625" s="12" t="s">
+        <v>728</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D625" s="2">
         <v>88</v>
@@ -23096,11 +22931,11 @@
       <c r="A626" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B626" s="2" t="s">
-        <v>786</v>
+      <c r="B626" s="12" t="s">
+        <v>728</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D626" s="2">
         <v>76</v>
@@ -23128,11 +22963,11 @@
       <c r="A627" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B627" s="2" t="s">
-        <v>785</v>
+      <c r="B627" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D627" s="2">
         <v>33</v>
@@ -23160,11 +22995,11 @@
       <c r="A628" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="B628" s="2" t="s">
-        <v>785</v>
+      <c r="B628" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D628" s="2">
         <v>106</v>
@@ -23192,11 +23027,11 @@
       <c r="A629" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="B629" s="2" t="s">
-        <v>786</v>
+      <c r="B629" s="12" t="s">
+        <v>728</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D629" s="2">
         <v>136</v>
@@ -23224,11 +23059,11 @@
       <c r="A630" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="B630" s="2" t="s">
-        <v>765</v>
+      <c r="B630" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D630" s="2">
         <v>151</v>
@@ -23256,11 +23091,11 @@
       <c r="A631" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="B631" s="2" t="s">
-        <v>765</v>
+      <c r="B631" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D631" s="2">
         <v>0</v>
@@ -23287,11 +23122,11 @@
       <c r="A632" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="B632" s="2" t="s">
-        <v>765</v>
+      <c r="B632" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>917</v>
+        <v>858</v>
       </c>
       <c r="D632" s="2">
         <v>0</v>
@@ -23318,11 +23153,11 @@
       <c r="A633" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B633" s="2" t="s">
-        <v>765</v>
+      <c r="B633" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D633" s="2">
         <v>0</v>
@@ -23349,11 +23184,11 @@
       <c r="A634" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B634" s="2" t="s">
-        <v>765</v>
+      <c r="B634" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D634" s="2">
         <v>98</v>
@@ -23381,11 +23216,11 @@
       <c r="A635" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B635" s="2" t="s">
-        <v>765</v>
+      <c r="B635" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D635" s="2">
         <v>185</v>
@@ -23413,11 +23248,11 @@
       <c r="A636" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="B636" s="2" t="s">
-        <v>765</v>
+      <c r="B636" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D636" s="2">
         <v>9</v>
@@ -23445,11 +23280,11 @@
       <c r="A637" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="B637" s="2" t="s">
-        <v>765</v>
+      <c r="B637" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D637" s="2">
         <v>9</v>
@@ -23477,11 +23312,11 @@
       <c r="A638" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B638" s="2" t="s">
-        <v>765</v>
+      <c r="B638" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D638" s="2">
         <v>191</v>
@@ -23509,11 +23344,11 @@
       <c r="A639" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="B639" s="2" t="s">
-        <v>765</v>
+      <c r="B639" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>952</v>
+        <v>893</v>
       </c>
       <c r="D639" s="2">
         <v>0</v>
@@ -23540,11 +23375,11 @@
       <c r="A640" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="B640" s="2" t="s">
-        <v>765</v>
+      <c r="B640" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D640" s="2">
         <v>47</v>
@@ -23572,11 +23407,11 @@
       <c r="A641" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="B641" s="2" t="s">
-        <v>788</v>
+      <c r="B641" s="12" t="s">
+        <v>730</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D641" s="2">
         <v>149</v>
@@ -23604,11 +23439,11 @@
       <c r="A642" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="B642" s="2" t="s">
-        <v>788</v>
+      <c r="B642" s="12" t="s">
+        <v>730</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D642" s="2">
         <v>33</v>
@@ -23636,11 +23471,11 @@
       <c r="A643" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="B643" s="2" t="s">
-        <v>788</v>
+      <c r="B643" s="12" t="s">
+        <v>730</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>953</v>
+        <v>894</v>
       </c>
       <c r="D643" s="2">
         <v>0</v>
@@ -23667,11 +23502,11 @@
       <c r="A644" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B644" s="2" t="s">
-        <v>788</v>
+      <c r="B644" s="12" t="s">
+        <v>730</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D644" s="2">
         <v>167</v>
@@ -23699,11 +23534,11 @@
       <c r="A645" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="B645" s="2" t="s">
-        <v>788</v>
+      <c r="B645" s="12" t="s">
+        <v>730</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D645" s="2">
         <v>0</v>
@@ -23730,11 +23565,11 @@
       <c r="A646" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="B646" s="2" t="s">
-        <v>788</v>
+      <c r="B646" s="12" t="s">
+        <v>730</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D646" s="2">
         <v>184</v>
@@ -23762,11 +23597,11 @@
       <c r="A647" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="B647" s="2" t="s">
-        <v>788</v>
+      <c r="B647" s="12" t="s">
+        <v>730</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>954</v>
+        <v>895</v>
       </c>
       <c r="D647" s="2">
         <v>0</v>
@@ -23793,11 +23628,11 @@
       <c r="A648" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="B648" s="2" t="s">
-        <v>788</v>
+      <c r="B648" s="12" t="s">
+        <v>730</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D648" s="2">
         <v>0</v>
@@ -23824,11 +23659,11 @@
       <c r="A649" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="B649" s="2" t="s">
-        <v>789</v>
+      <c r="B649" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D649" s="2">
         <v>86</v>
@@ -23856,9 +23691,9 @@
       <c r="A650" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B650" s="5"/>
+      <c r="B650" s="13"/>
       <c r="C650" s="5" t="s">
-        <v>955</v>
+        <v>896</v>
       </c>
       <c r="D650" s="2">
         <v>0</v>
@@ -23885,11 +23720,11 @@
       <c r="A651" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="B651" s="5" t="s">
-        <v>790</v>
+      <c r="B651" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>917</v>
+        <v>858</v>
       </c>
       <c r="D651" s="5">
         <v>0</v>
@@ -23916,11 +23751,11 @@
       <c r="A652" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="B652" s="5" t="s">
-        <v>790</v>
+      <c r="B652" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="C652" s="5" t="s">
-        <v>956</v>
+        <v>897</v>
       </c>
       <c r="D652" s="5">
         <v>0</v>
@@ -23947,11 +23782,11 @@
       <c r="A653" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="B653" s="5" t="s">
-        <v>791</v>
+      <c r="B653" s="13" t="s">
+        <v>732</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>957</v>
+        <v>898</v>
       </c>
       <c r="D653" s="5">
         <v>0</v>
@@ -23978,11 +23813,11 @@
       <c r="A654" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="B654" s="5" t="s">
-        <v>791</v>
+      <c r="B654" s="13" t="s">
+        <v>732</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D654" s="5">
         <v>131</v>
@@ -24010,11 +23845,11 @@
       <c r="A655" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="B655" s="5" t="s">
-        <v>791</v>
+      <c r="B655" s="13" t="s">
+        <v>732</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D655" s="5">
         <v>69</v>
@@ -24042,11 +23877,11 @@
       <c r="A656" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B656" s="5" t="s">
-        <v>754</v>
+      <c r="B656" s="13" t="s">
+        <v>716</v>
       </c>
       <c r="C656" s="5" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D656" s="5">
         <v>71</v>
@@ -24074,11 +23909,11 @@
       <c r="A657" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="B657" s="2" t="s">
-        <v>782</v>
+      <c r="B657" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D657" s="2">
         <v>147</v>
@@ -24106,11 +23941,11 @@
       <c r="A658" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="B658" s="2" t="s">
-        <v>781</v>
+      <c r="B658" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D658" s="2">
         <v>147</v>
@@ -24138,11 +23973,11 @@
       <c r="A659" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="B659" s="2" t="s">
-        <v>711</v>
+      <c r="B659" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D659" s="2">
         <v>391</v>
@@ -24169,11 +24004,11 @@
       <c r="A660" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B660" s="2" t="s">
-        <v>776</v>
+      <c r="B660" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D660" s="2">
         <v>103</v>
@@ -24201,11 +24036,11 @@
       <c r="A661" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="B661" s="2" t="s">
-        <v>782</v>
+      <c r="B661" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D661" s="2">
         <v>225</v>
@@ -24231,13 +24066,13 @@
     </row>
     <row r="662" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A662" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="B662" s="2" t="s">
-        <v>960</v>
+        <v>900</v>
+      </c>
+      <c r="B662" s="12" t="s">
+        <v>901</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D662" s="2">
         <v>10</v>
@@ -24263,13 +24098,13 @@
     </row>
     <row r="663" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A663" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="B663" s="2" t="s">
-        <v>962</v>
+        <v>902</v>
+      </c>
+      <c r="B663" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="D663" s="2">
         <v>74</v>

--- a/Bundle/Ungheni/PT_Ungheni.xlsx
+++ b/Bundle/Ungheni/PT_Ungheni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\GitHub\Dispatcher_Bureau\Bundle\Ungheni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BACB4B5-BA06-4E30-82AC-4CD5C37D9374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29001BA0-C0DD-4531-955D-7FFD5BFF7547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A396AB9-6E7F-4978-AFCE-8C60F5766EE6}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="25320" windowHeight="14115" xr2:uid="{9A396AB9-6E7F-4978-AFCE-8C60F5766EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="PT_Ungheni" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="899">
   <si>
     <t>PT568CT1</t>
   </si>
@@ -2006,9 +2006,6 @@
     <t>s.Magurele</t>
   </si>
   <si>
-    <t>s.Mircești</t>
-  </si>
-  <si>
     <t>s.Boghenii Vechi</t>
   </si>
   <si>
@@ -2066,24 +2063,12 @@
     <t>s.Zazulenii Noi</t>
   </si>
   <si>
-    <t>s.Buşila</t>
-  </si>
-  <si>
     <t>s.Negurenii Vechi</t>
   </si>
   <si>
     <t>s.Negurenii Noi</t>
   </si>
   <si>
-    <t>s.Pîrliţa</t>
-  </si>
-  <si>
-    <t>s.Todireşti</t>
-  </si>
-  <si>
-    <t>s.Grăseni</t>
-  </si>
-  <si>
     <t>s.Nicolaevca Veche</t>
   </si>
   <si>
@@ -2093,24 +2078,9 @@
     <t>s.Lidovca</t>
   </si>
   <si>
-    <t>s.Rădenii Vechi</t>
-  </si>
-  <si>
-    <t>s.Săghiana</t>
-  </si>
-  <si>
     <t>s.Hristoforovca</t>
   </si>
   <si>
-    <t>s.Teşcureni</t>
-  </si>
-  <si>
-    <t>s.Ţîgîra</t>
-  </si>
-  <si>
-    <t>s.Coşeni</t>
-  </si>
-  <si>
     <t>s.Zagarancea</t>
   </si>
   <si>
@@ -2156,9 +2126,6 @@
     <t>s.Medeleni</t>
   </si>
   <si>
-    <t>s.Petreşti</t>
-  </si>
-  <si>
     <t>s.Floresti</t>
   </si>
   <si>
@@ -2168,9 +2135,6 @@
     <t>s.Petresti</t>
   </si>
   <si>
-    <t>s.Todirești</t>
-  </si>
-  <si>
     <t>s.Chirileni</t>
   </si>
   <si>
@@ -2243,12 +2207,6 @@
     <t>Serviciul Antigrindina</t>
   </si>
   <si>
-    <t>Aghenie Victor "Sursa Regenerabilă De Energie Electrică"</t>
-  </si>
-  <si>
-    <t>SRL CRAMA MIRCEȘTI</t>
-  </si>
-  <si>
     <t>SA"Moldtelecom"</t>
   </si>
   <si>
@@ -2339,9 +2297,6 @@
     <t>SA"Agrosfera BN"</t>
   </si>
   <si>
-    <t>Primaria s.Todireşti</t>
-  </si>
-  <si>
     <t>SRL"Caliga Reveca"</t>
   </si>
   <si>
@@ -2447,9 +2402,6 @@
     <t>II"Dosca Ilarion"</t>
   </si>
   <si>
-    <t>S.A."Drumuri-Străşeni"</t>
-  </si>
-  <si>
     <t>LUNGU SEWRGIU</t>
   </si>
   <si>
@@ -2523,9 +2475,6 @@
   </si>
   <si>
     <t>SA "Agroservice"</t>
-  </si>
-  <si>
-    <t>COVAȘNIUC MARCEEL</t>
   </si>
   <si>
     <t>Grebenciuc Anatolii</t>
@@ -2769,6 +2718,45 @@
   </si>
   <si>
     <t>PT36PD2 9</t>
+  </si>
+  <si>
+    <t>Aghenie Victor "Sursa Regenerabila De Energie Electrica"</t>
+  </si>
+  <si>
+    <t>s.Graseni</t>
+  </si>
+  <si>
+    <t>s.Radenii Vechi</t>
+  </si>
+  <si>
+    <t>s.Saghiana</t>
+  </si>
+  <si>
+    <t>SRL CRAMA MIRCEsTI</t>
+  </si>
+  <si>
+    <t>s.Todiresti</t>
+  </si>
+  <si>
+    <t>Primaria s.Todiresti</t>
+  </si>
+  <si>
+    <t>s.Tescureni</t>
+  </si>
+  <si>
+    <t>s.Coseni</t>
+  </si>
+  <si>
+    <t>S.A."Drumuri-Straseni"</t>
+  </si>
+  <si>
+    <t>COVAsNIUC MARCEEL</t>
+  </si>
+  <si>
+    <t>s.Pirlita</t>
+  </si>
+  <si>
+    <t>s.tigira</t>
   </si>
 </sst>
 </file>
@@ -3248,7 +3236,7 @@
         <v>650</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>651</v>
@@ -3277,7 +3265,7 @@
         <v>653</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -3308,7 +3296,7 @@
         <v>653</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3339,7 +3327,7 @@
         <v>653</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D4" s="2">
         <v>81</v>
@@ -3372,7 +3360,7 @@
         <v>653</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3403,7 +3391,7 @@
         <v>653</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D6" s="2">
         <v>140</v>
@@ -3436,7 +3424,7 @@
         <v>653</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3467,7 +3455,7 @@
         <v>654</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D8" s="2">
         <v>77</v>
@@ -3500,7 +3488,7 @@
         <v>654</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D9" s="2">
         <v>40</v>
@@ -3533,7 +3521,7 @@
         <v>653</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3564,7 +3552,7 @@
         <v>655</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>737</v>
+        <v>886</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -3595,7 +3583,7 @@
         <v>656</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D12" s="2">
         <v>151</v>
@@ -3626,7 +3614,7 @@
         <v>657</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>738</v>
+        <v>890</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
@@ -3652,10 +3640,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D14" s="7">
         <v>52</v>
@@ -3686,7 +3674,7 @@
         <v>655</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3717,7 +3705,7 @@
         <v>655</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -3748,7 +3736,7 @@
         <v>656</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D17" s="2">
         <v>151</v>
@@ -3778,10 +3766,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D18" s="2">
         <v>99</v>
@@ -3811,10 +3799,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D19" s="2">
         <v>32</v>
@@ -3844,10 +3832,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D20" s="2">
         <v>39</v>
@@ -3880,7 +3868,7 @@
         <v>655</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D21" s="2">
         <v>50</v>
@@ -3910,10 +3898,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D22" s="2">
         <v>43</v>
@@ -3946,7 +3934,7 @@
         <v>655</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D23" s="2">
         <v>47</v>
@@ -3979,7 +3967,7 @@
         <v>657</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -4039,7 +4027,7 @@
         <v>657</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
@@ -4070,7 +4058,7 @@
         <v>657</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D27" s="2">
         <v>64</v>
@@ -4103,7 +4091,7 @@
         <v>657</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D28" s="2">
         <v>56</v>
@@ -4136,7 +4124,7 @@
         <v>657</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D29" s="2">
         <v>119</v>
@@ -4169,7 +4157,7 @@
         <v>657</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D30" s="2">
         <v>61</v>
@@ -4202,7 +4190,7 @@
         <v>653</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D31" s="2">
         <v>118</v>
@@ -4235,7 +4223,7 @@
         <v>653</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -4266,7 +4254,7 @@
         <v>653</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D33" s="2">
         <v>20</v>
@@ -4299,7 +4287,7 @@
         <v>653</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D34" s="2">
         <v>9</v>
@@ -4332,7 +4320,7 @@
         <v>653</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D35" s="2">
         <v>122</v>
@@ -4365,7 +4353,7 @@
         <v>653</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="D36" s="2">
         <v>105</v>
@@ -4398,7 +4386,7 @@
         <v>653</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -4429,7 +4417,7 @@
         <v>653</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4457,10 +4445,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -4488,10 +4476,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D40" s="2">
         <v>97</v>
@@ -4521,10 +4509,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D41" s="2">
         <v>82</v>
@@ -4554,10 +4542,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -4585,10 +4573,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -4616,10 +4604,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -4647,10 +4635,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -4681,7 +4669,7 @@
         <v>653</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D46" s="2">
         <v>175</v>
@@ -4714,7 +4702,7 @@
         <v>653</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D47" s="2">
         <v>219</v>
@@ -4744,10 +4732,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D48" s="2">
         <v>138</v>
@@ -4777,10 +4765,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D49" s="2">
         <v>88</v>
@@ -4810,10 +4798,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D50" s="2">
         <v>123</v>
@@ -4843,10 +4831,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D51" s="2">
         <v>98</v>
@@ -4876,10 +4864,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D52" s="2">
         <v>64</v>
@@ -4909,10 +4897,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D53" s="2">
         <v>54</v>
@@ -4942,10 +4930,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D54" s="2">
         <v>72</v>
@@ -4978,7 +4966,7 @@
         <v>653</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -5009,7 +4997,7 @@
         <v>653</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -5037,10 +5025,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D57" s="2">
         <v>26</v>
@@ -5070,10 +5058,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D58" s="2">
         <v>54</v>
@@ -5103,10 +5091,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D59" s="2">
         <v>33</v>
@@ -5136,10 +5124,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D60" s="2">
         <v>54</v>
@@ -5169,10 +5157,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D61" s="2">
         <v>39</v>
@@ -5202,10 +5190,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -5233,10 +5221,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D63" s="2">
         <v>94</v>
@@ -5266,10 +5254,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -5297,10 +5285,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -5328,10 +5316,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -5359,10 +5347,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D67" s="2">
         <v>87</v>
@@ -5392,10 +5380,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -5423,10 +5411,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
@@ -5454,10 +5442,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -5485,10 +5473,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D71" s="2">
         <v>120</v>
@@ -5518,10 +5506,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D72" s="2">
         <v>69</v>
@@ -5551,10 +5539,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -5582,10 +5570,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -5613,10 +5601,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="D75" s="2">
         <v>0</v>
@@ -5644,10 +5632,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -5675,10 +5663,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D77" s="2">
         <v>121</v>
@@ -5708,10 +5696,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D78" s="2">
         <v>182</v>
@@ -5741,10 +5729,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D79" s="2">
         <v>163</v>
@@ -5774,10 +5762,10 @@
         <v>77</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D80" s="2">
         <v>44</v>
@@ -5807,10 +5795,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D81" s="2">
         <v>54</v>
@@ -5840,10 +5828,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D82" s="2">
         <v>68</v>
@@ -5873,10 +5861,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -5904,10 +5892,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D84" s="2">
         <v>135</v>
@@ -5936,10 +5924,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D85" s="2">
         <v>118</v>
@@ -5969,10 +5957,10 @@
         <v>83</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D86" s="2">
         <v>54</v>
@@ -6002,10 +5990,10 @@
         <v>84</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="D87" s="7">
         <v>0</v>
@@ -6033,10 +6021,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D88" s="2">
         <v>105</v>
@@ -6066,10 +6054,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="D89" s="2">
         <v>0</v>
@@ -6097,10 +6085,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -6128,10 +6116,10 @@
         <v>88</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D91" s="2">
         <v>0</v>
@@ -6159,10 +6147,10 @@
         <v>89</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
@@ -6190,10 +6178,10 @@
         <v>90</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
@@ -6221,10 +6209,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D94" s="2">
         <v>89</v>
@@ -6254,10 +6242,10 @@
         <v>92</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D95" s="2">
         <v>105</v>
@@ -6287,10 +6275,10 @@
         <v>93</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D96" s="2">
         <v>46</v>
@@ -6320,10 +6308,10 @@
         <v>94</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D97" s="2">
         <v>133</v>
@@ -6353,10 +6341,10 @@
         <v>95</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D98" s="2">
         <v>46</v>
@@ -6386,10 +6374,10 @@
         <v>96</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D99" s="2">
         <v>25</v>
@@ -6419,10 +6407,10 @@
         <v>97</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D100" s="2">
         <v>42</v>
@@ -6452,10 +6440,10 @@
         <v>98</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D101" s="2">
         <v>0</v>
@@ -6483,10 +6471,10 @@
         <v>99</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="D102" s="2">
         <v>127</v>
@@ -6516,10 +6504,10 @@
         <v>100</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D103" s="2">
         <v>118</v>
@@ -6549,10 +6537,10 @@
         <v>101</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D104" s="2">
         <v>77</v>
@@ -6585,7 +6573,7 @@
         <v>653</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="D105" s="2">
         <v>0</v>
@@ -6613,10 +6601,10 @@
         <v>103</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D106" s="2">
         <v>73</v>
@@ -6646,10 +6634,10 @@
         <v>104</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D107" s="2">
         <v>201</v>
@@ -6679,10 +6667,10 @@
         <v>105</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D108" s="2">
         <v>180</v>
@@ -6712,10 +6700,10 @@
         <v>106</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D109" s="2">
         <v>154</v>
@@ -6745,10 +6733,10 @@
         <v>107</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D110" s="2">
         <v>154</v>
@@ -6778,10 +6766,10 @@
         <v>108</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D111" s="2">
         <v>0</v>
@@ -6809,10 +6797,10 @@
         <v>109</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -6840,10 +6828,10 @@
         <v>110</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D113" s="2">
         <v>0</v>
@@ -6871,10 +6859,10 @@
         <v>111</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
@@ -6902,10 +6890,10 @@
         <v>112</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D115" s="2">
         <v>0</v>
@@ -6933,10 +6921,10 @@
         <v>113</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D116" s="2">
         <v>67</v>
@@ -6966,10 +6954,10 @@
         <v>114</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D117" s="2">
         <v>0</v>
@@ -7024,10 +7012,10 @@
         <v>116</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="D119" s="2">
         <v>0</v>
@@ -7055,10 +7043,10 @@
         <v>117</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D120" s="2">
         <v>37</v>
@@ -7088,10 +7076,10 @@
         <v>118</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D121" s="2">
         <v>21</v>
@@ -7121,10 +7109,10 @@
         <v>119</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="D122" s="2">
         <v>0</v>
@@ -7152,10 +7140,10 @@
         <v>120</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D123" s="2">
         <v>0</v>
@@ -7183,10 +7171,10 @@
         <v>121</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D124" s="2">
         <v>83</v>
@@ -7216,10 +7204,10 @@
         <v>122</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="D125" s="2">
         <v>0</v>
@@ -7247,10 +7235,10 @@
         <v>123</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D126" s="2">
         <v>72</v>
@@ -7280,10 +7268,10 @@
         <v>124</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D127" s="2">
         <v>58</v>
@@ -7313,10 +7301,10 @@
         <v>125</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D128" s="2">
         <v>0</v>
@@ -7344,10 +7332,10 @@
         <v>126</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D129" s="2">
         <v>29</v>
@@ -7377,10 +7365,10 @@
         <v>127</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -7408,10 +7396,10 @@
         <v>128</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D131" s="2">
         <v>76</v>
@@ -7441,10 +7429,10 @@
         <v>129</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
@@ -7472,10 +7460,10 @@
         <v>130</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D133" s="2">
         <v>0</v>
@@ -7503,10 +7491,10 @@
         <v>131</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D134" s="2">
         <v>123</v>
@@ -7536,10 +7524,10 @@
         <v>132</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D135" s="2">
         <v>71</v>
@@ -7569,10 +7557,10 @@
         <v>133</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>683</v>
+        <v>887</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D136" s="2">
         <v>112</v>
@@ -7602,10 +7590,10 @@
         <v>134</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>683</v>
+        <v>887</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D137" s="2">
         <v>0</v>
@@ -7633,10 +7621,10 @@
         <v>135</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>683</v>
+        <v>887</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D138" s="2">
         <v>94</v>
@@ -7666,10 +7654,10 @@
         <v>136</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>683</v>
+        <v>887</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D139" s="2">
         <v>0</v>
@@ -7697,10 +7685,10 @@
         <v>137</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>683</v>
+        <v>887</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D140" s="2">
         <v>39</v>
@@ -7730,10 +7718,10 @@
         <v>138</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>683</v>
+        <v>887</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D141" s="2">
         <v>30</v>
@@ -7763,10 +7751,10 @@
         <v>139</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="D142" s="2">
         <v>0</v>
@@ -7794,10 +7782,10 @@
         <v>140</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D143" s="2">
         <v>103</v>
@@ -7827,10 +7815,10 @@
         <v>141</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D144" s="2">
         <v>173</v>
@@ -7860,10 +7848,10 @@
         <v>142</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D145" s="2">
         <v>0</v>
@@ -7891,10 +7879,10 @@
         <v>143</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>769</v>
+        <v>892</v>
       </c>
       <c r="D146" s="2">
         <v>0</v>
@@ -7922,10 +7910,10 @@
         <v>144</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D147" s="2">
         <v>0</v>
@@ -7953,10 +7941,10 @@
         <v>145</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D148" s="2">
         <v>149</v>
@@ -7986,10 +7974,10 @@
         <v>146</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>769</v>
+        <v>892</v>
       </c>
       <c r="D149" s="2">
         <v>0</v>
@@ -8017,10 +8005,10 @@
         <v>147</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D150" s="2">
         <v>134</v>
@@ -8050,10 +8038,10 @@
         <v>148</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D151" s="2">
         <v>148</v>
@@ -8083,10 +8071,10 @@
         <v>149</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D152" s="2">
         <v>99</v>
@@ -8116,10 +8104,10 @@
         <v>150</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="D153" s="2">
         <v>0</v>
@@ -8147,10 +8135,10 @@
         <v>151</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D154" s="2">
         <v>0</v>
@@ -8178,10 +8166,10 @@
         <v>152</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D155" s="2">
         <v>28</v>
@@ -8211,10 +8199,10 @@
         <v>153</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D156" s="2">
         <v>0</v>
@@ -8242,10 +8230,10 @@
         <v>154</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D157" s="2">
         <v>4</v>
@@ -8275,10 +8263,10 @@
         <v>155</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D158" s="2">
         <v>108</v>
@@ -8308,10 +8296,10 @@
         <v>156</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="D159" s="2">
         <v>0</v>
@@ -8339,10 +8327,10 @@
         <v>157</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D160" s="2">
         <v>139</v>
@@ -8372,10 +8360,10 @@
         <v>158</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D161" s="2">
         <v>121</v>
@@ -8405,10 +8393,10 @@
         <v>159</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D162" s="2">
         <v>227</v>
@@ -8438,10 +8426,10 @@
         <v>160</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D163" s="2">
         <v>161</v>
@@ -8471,10 +8459,10 @@
         <v>161</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D164" s="2">
         <v>86</v>
@@ -8504,10 +8492,10 @@
         <v>162</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D165" s="2">
         <v>124</v>
@@ -8537,10 +8525,10 @@
         <v>163</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D166" s="2">
         <v>110</v>
@@ -8570,7 +8558,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2">
@@ -8599,10 +8587,10 @@
         <v>165</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="D168" s="2">
         <v>0</v>
@@ -8630,10 +8618,10 @@
         <v>166</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="D169" s="2">
         <v>0</v>
@@ -8661,10 +8649,10 @@
         <v>167</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="D170" s="2">
         <v>11</v>
@@ -8694,10 +8682,10 @@
         <v>168</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D171" s="2">
         <v>131</v>
@@ -8727,10 +8715,10 @@
         <v>169</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D172" s="2">
         <v>16</v>
@@ -8760,10 +8748,10 @@
         <v>170</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D173" s="2">
         <v>0</v>
@@ -8791,10 +8779,10 @@
         <v>171</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D174" s="2">
         <v>0</v>
@@ -8822,10 +8810,10 @@
         <v>172</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="D175" s="2">
         <v>0</v>
@@ -8853,10 +8841,10 @@
         <v>173</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D176" s="2">
         <v>21</v>
@@ -8886,10 +8874,10 @@
         <v>174</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D177" s="2">
         <v>0</v>
@@ -8917,10 +8905,10 @@
         <v>175</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="D178" s="2">
         <v>0</v>
@@ -8948,10 +8936,10 @@
         <v>176</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D179" s="2">
         <v>24</v>
@@ -8981,10 +8969,10 @@
         <v>177</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D180" s="2">
         <v>8</v>
@@ -9014,10 +9002,10 @@
         <v>178</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D181" s="2">
         <v>30</v>
@@ -9047,10 +9035,10 @@
         <v>179</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D182" s="2">
         <v>133</v>
@@ -9080,10 +9068,10 @@
         <v>180</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D183" s="2">
         <v>49</v>
@@ -9113,10 +9101,10 @@
         <v>181</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D184" s="2">
         <v>0</v>
@@ -9144,10 +9132,10 @@
         <v>182</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D185" s="2">
         <v>142</v>
@@ -9177,10 +9165,10 @@
         <v>153</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D186" s="2">
         <v>0</v>
@@ -9208,10 +9196,10 @@
         <v>183</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D187" s="2">
         <v>183</v>
@@ -9241,10 +9229,10 @@
         <v>184</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D188" s="2">
         <v>126</v>
@@ -9274,10 +9262,10 @@
         <v>185</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="D189" s="2">
         <v>0</v>
@@ -9305,10 +9293,10 @@
         <v>186</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="D190" s="2">
         <v>0</v>
@@ -9336,10 +9324,10 @@
         <v>187</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="D191" s="2">
         <v>0</v>
@@ -9367,10 +9355,10 @@
         <v>188</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D192" s="2">
         <v>0</v>
@@ -9398,10 +9386,10 @@
         <v>189</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D193" s="2">
         <v>0</v>
@@ -9429,10 +9417,10 @@
         <v>190</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D194" s="2">
         <v>22</v>
@@ -9462,10 +9450,10 @@
         <v>191</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D195" s="2">
         <v>0</v>
@@ -9493,10 +9481,10 @@
         <v>192</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D196" s="2">
         <v>103</v>
@@ -9526,10 +9514,10 @@
         <v>193</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D197" s="2">
         <v>0</v>
@@ -9557,10 +9545,10 @@
         <v>194</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D198" s="2">
         <v>98</v>
@@ -9590,10 +9578,10 @@
         <v>195</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D199" s="2">
         <v>146</v>
@@ -9623,10 +9611,10 @@
         <v>196</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D200" s="2">
         <v>128</v>
@@ -9656,10 +9644,10 @@
         <v>197</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D201" s="2">
         <v>107</v>
@@ -9689,10 +9677,10 @@
         <v>198</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D202" s="2">
         <v>0</v>
@@ -9720,10 +9708,10 @@
         <v>199</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="D203" s="2">
         <v>0</v>
@@ -9751,10 +9739,10 @@
         <v>200</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="D204" s="2">
         <v>0</v>
@@ -9782,10 +9770,10 @@
         <v>201</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D205" s="2">
         <v>0</v>
@@ -9813,10 +9801,10 @@
         <v>202</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="D206" s="2">
         <v>0</v>
@@ -9844,10 +9832,10 @@
         <v>203</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="D207" s="2">
         <v>0</v>
@@ -9875,10 +9863,10 @@
         <v>204</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="D208" s="2">
         <v>0</v>
@@ -9906,10 +9894,10 @@
         <v>205</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D209" s="2">
         <v>110</v>
@@ -9939,10 +9927,10 @@
         <v>206</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D210" s="2">
         <v>109</v>
@@ -9972,10 +9960,10 @@
         <v>207</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="D211" s="2">
         <v>0</v>
@@ -10003,10 +9991,10 @@
         <v>208</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D212" s="2">
         <v>115</v>
@@ -10036,10 +10024,10 @@
         <v>209</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D213" s="2">
         <v>0</v>
@@ -10067,10 +10055,10 @@
         <v>210</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>687</v>
+        <v>888</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="D214" s="2">
         <v>0</v>
@@ -10098,10 +10086,10 @@
         <v>211</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>688</v>
+        <v>889</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D215" s="2">
         <v>44</v>
@@ -10131,10 +10119,10 @@
         <v>212</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D216" s="2">
         <v>42</v>
@@ -10164,10 +10152,10 @@
         <v>213</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="D217" s="2">
         <v>0</v>
@@ -10195,10 +10183,10 @@
         <v>214</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D218" s="2">
         <v>151</v>
@@ -10228,10 +10216,10 @@
         <v>215</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D219" s="2">
         <v>103</v>
@@ -10261,10 +10249,10 @@
         <v>216</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D220" s="2">
         <v>109</v>
@@ -10294,10 +10282,10 @@
         <v>217</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D221" s="2">
         <v>0</v>
@@ -10325,10 +10313,10 @@
         <v>218</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D222" s="2">
         <v>62</v>
@@ -10358,10 +10346,10 @@
         <v>219</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D223" s="2">
         <v>0</v>
@@ -10389,10 +10377,10 @@
         <v>220</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="D224" s="2">
         <v>0</v>
@@ -10420,10 +10408,10 @@
         <v>221</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D225" s="2">
         <v>103</v>
@@ -10453,10 +10441,10 @@
         <v>222</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D226" s="2">
         <v>83</v>
@@ -10486,10 +10474,10 @@
         <v>223</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D227" s="2">
         <v>0</v>
@@ -10517,10 +10505,10 @@
         <v>224</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>690</v>
+        <v>893</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D228" s="2">
         <v>80</v>
@@ -10550,10 +10538,10 @@
         <v>225</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>690</v>
+        <v>893</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D229" s="2">
         <v>8</v>
@@ -10583,10 +10571,10 @@
         <v>226</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>690</v>
+        <v>893</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D230" s="2">
         <v>0</v>
@@ -10614,10 +10602,10 @@
         <v>227</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>690</v>
+        <v>893</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D231" s="2">
         <v>98</v>
@@ -10647,10 +10635,10 @@
         <v>228</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>690</v>
+        <v>893</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D232" s="2">
         <v>89</v>
@@ -10680,10 +10668,10 @@
         <v>229</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>690</v>
+        <v>893</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D233" s="2">
         <v>0</v>
@@ -10711,10 +10699,10 @@
         <v>230</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>690</v>
+        <v>893</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D234" s="2">
         <v>54</v>
@@ -10744,10 +10732,10 @@
         <v>231</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>690</v>
+        <v>893</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D235" s="2">
         <v>0</v>
@@ -10775,10 +10763,10 @@
         <v>232</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>691</v>
+        <v>898</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D236" s="2">
         <v>0</v>
@@ -10806,10 +10794,10 @@
         <v>233</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>691</v>
+        <v>898</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D237" s="2">
         <v>141</v>
@@ -10839,10 +10827,10 @@
         <v>234</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>691</v>
+        <v>898</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D238" s="2">
         <v>105</v>
@@ -10872,10 +10860,10 @@
         <v>235</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>692</v>
+        <v>894</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D239" s="2">
         <v>72</v>
@@ -10905,10 +10893,10 @@
         <v>236</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>692</v>
+        <v>894</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D240" s="2">
         <v>52</v>
@@ -10938,10 +10926,10 @@
         <v>237</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>692</v>
+        <v>894</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D241" s="2">
         <v>0</v>
@@ -10969,10 +10957,10 @@
         <v>238</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D242" s="2">
         <v>133</v>
@@ -11001,10 +10989,10 @@
         <v>239</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D243" s="2">
         <v>0</v>
@@ -11032,10 +11020,10 @@
         <v>240</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D244" s="2">
         <v>17</v>
@@ -11064,10 +11052,10 @@
         <v>241</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="D245" s="2">
         <v>0</v>
@@ -11095,10 +11083,10 @@
         <v>242</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D246" s="2">
         <v>0</v>
@@ -11126,10 +11114,10 @@
         <v>243</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="D247" s="2">
         <v>24</v>
@@ -11158,10 +11146,10 @@
         <v>244</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="D248" s="2">
         <v>0</v>
@@ -11189,10 +11177,10 @@
         <v>245</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="D249" s="2">
         <v>0</v>
@@ -11220,10 +11208,10 @@
         <v>246</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="D250" s="2">
         <v>96</v>
@@ -11252,10 +11240,10 @@
         <v>247</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D251" s="2">
         <v>455</v>
@@ -11283,10 +11271,10 @@
         <v>248</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="D252" s="2">
         <v>0</v>
@@ -11314,10 +11302,10 @@
         <v>249</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="D253" s="2">
         <v>0</v>
@@ -11372,10 +11360,10 @@
         <v>251</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="D255" s="2">
         <v>0</v>
@@ -11403,10 +11391,10 @@
         <v>252</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="D256" s="2">
         <v>0</v>
@@ -11461,10 +11449,10 @@
         <v>254</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="D258" s="2">
         <v>0</v>
@@ -11519,10 +11507,10 @@
         <v>256</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="D260" s="2">
         <v>0</v>
@@ -11550,7 +11538,7 @@
         <v>257</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2">
@@ -11634,10 +11622,10 @@
         <v>260</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D264" s="2">
         <v>0</v>
@@ -11665,10 +11653,10 @@
         <v>261</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D265" s="2">
         <v>0</v>
@@ -11696,10 +11684,10 @@
         <v>262</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D266" s="2">
         <v>0</v>
@@ -11727,10 +11715,10 @@
         <v>263</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D267" s="2">
         <v>0</v>
@@ -11758,10 +11746,10 @@
         <v>264</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D268" s="2">
         <v>0</v>
@@ -11789,10 +11777,10 @@
         <v>265</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="D269" s="2">
         <v>0</v>
@@ -11820,10 +11808,10 @@
         <v>266</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="D270" s="2">
         <v>0</v>
@@ -11851,10 +11839,10 @@
         <v>267</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="D271" s="2">
         <v>0</v>
@@ -11882,10 +11870,10 @@
         <v>268</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="D272" s="2">
         <v>0</v>
@@ -11913,10 +11901,10 @@
         <v>269</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D273" s="2">
         <v>1035</v>
@@ -11944,10 +11932,10 @@
         <v>270</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="D274" s="2">
         <v>0</v>
@@ -11975,10 +11963,10 @@
         <v>271</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="D275" s="2">
         <v>0</v>
@@ -12006,10 +11994,10 @@
         <v>272</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D276" s="2">
         <v>226</v>
@@ -12038,10 +12026,10 @@
         <v>273</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="D277" s="2">
         <v>123</v>
@@ -12070,10 +12058,10 @@
         <v>274</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D278" s="2">
         <v>420</v>
@@ -12129,10 +12117,10 @@
         <v>276</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D280" s="2">
         <v>792</v>
@@ -12160,10 +12148,10 @@
         <v>277</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="D281" s="2">
         <v>0</v>
@@ -12191,10 +12179,10 @@
         <v>278</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="D282" s="2">
         <v>0</v>
@@ -12222,10 +12210,10 @@
         <v>279</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D283" s="2">
         <v>1</v>
@@ -12254,10 +12242,10 @@
         <v>280</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D284" s="2">
         <v>119</v>
@@ -12286,10 +12274,10 @@
         <v>281</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D285" s="2">
         <v>162</v>
@@ -12318,10 +12306,10 @@
         <v>282</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="D286" s="2">
         <v>0</v>
@@ -12349,10 +12337,10 @@
         <v>283</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="D287" s="2">
         <v>0</v>
@@ -12380,10 +12368,10 @@
         <v>284</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D288" s="2">
         <v>324</v>
@@ -12411,10 +12399,10 @@
         <v>285</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D289" s="2">
         <v>114</v>
@@ -12443,10 +12431,10 @@
         <v>286</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="D290" s="2">
         <v>0</v>
@@ -12474,10 +12462,10 @@
         <v>287</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="D291" s="2">
         <v>0</v>
@@ -12505,10 +12493,10 @@
         <v>288</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="D292" s="2">
         <v>0</v>
@@ -12536,10 +12524,10 @@
         <v>289</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D293" s="2">
         <v>0</v>
@@ -12567,10 +12555,10 @@
         <v>290</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="D294" s="2">
         <v>0</v>
@@ -12625,10 +12613,10 @@
         <v>292</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="D296" s="2">
         <v>0</v>
@@ -12656,10 +12644,10 @@
         <v>293</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D297" s="2">
         <v>534</v>
@@ -12687,10 +12675,10 @@
         <v>294</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D298" s="2">
         <v>0</v>
@@ -12718,10 +12706,10 @@
         <v>295</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D299" s="2">
         <v>720</v>
@@ -12749,10 +12737,10 @@
         <v>296</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D300" s="2">
         <v>76</v>
@@ -12781,10 +12769,10 @@
         <v>297</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D301" s="2">
         <v>0</v>
@@ -12812,10 +12800,10 @@
         <v>298</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="D302" s="2">
         <v>0</v>
@@ -12843,10 +12831,10 @@
         <v>299</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D303" s="2">
         <v>54</v>
@@ -12875,10 +12863,10 @@
         <v>300</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D304" s="2">
         <v>53</v>
@@ -12907,10 +12895,10 @@
         <v>301</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="D305" s="2">
         <v>0</v>
@@ -12938,10 +12926,10 @@
         <v>302</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="D306" s="2">
         <v>0</v>
@@ -12969,10 +12957,10 @@
         <v>303</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D307" s="2">
         <v>75</v>
@@ -13001,10 +12989,10 @@
         <v>304</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="D308" s="2">
         <v>0</v>
@@ -13032,10 +13020,10 @@
         <v>305</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>805</v>
+        <v>895</v>
       </c>
       <c r="D309" s="2">
         <v>0</v>
@@ -13090,10 +13078,10 @@
         <v>307</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="D311" s="7">
         <v>0</v>
@@ -13121,10 +13109,10 @@
         <v>308</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D312" s="2">
         <v>0</v>
@@ -13152,10 +13140,10 @@
         <v>309</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D313" s="2">
         <v>0</v>
@@ -13183,10 +13171,10 @@
         <v>310</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="D314" s="2">
         <v>0</v>
@@ -13214,10 +13202,10 @@
         <v>311</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="D315" s="2">
         <v>0</v>
@@ -13245,10 +13233,10 @@
         <v>312</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="D316" s="2">
         <v>0</v>
@@ -13303,10 +13291,10 @@
         <v>314</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="D318" s="2">
         <v>0</v>
@@ -13334,10 +13322,10 @@
         <v>315</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="D319" s="2">
         <v>0</v>
@@ -13365,10 +13353,10 @@
         <v>316</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D320" s="2">
         <v>233</v>
@@ -13396,10 +13384,10 @@
         <v>317</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D321" s="2">
         <v>102</v>
@@ -13428,10 +13416,10 @@
         <v>318</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D322" s="2">
         <v>62</v>
@@ -13460,10 +13448,10 @@
         <v>319</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D323" s="2">
         <v>58</v>
@@ -13492,10 +13480,10 @@
         <v>320</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D324" s="2">
         <v>89</v>
@@ -13524,10 +13512,10 @@
         <v>321</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D325" s="2">
         <v>102</v>
@@ -13557,7 +13545,7 @@
       </c>
       <c r="B326" s="12"/>
       <c r="C326" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D326" s="2">
         <v>0</v>
@@ -13586,7 +13574,7 @@
       </c>
       <c r="B327" s="12"/>
       <c r="C327" s="2" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="D327" s="2">
         <v>0</v>
@@ -13614,10 +13602,10 @@
         <v>324</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D328" s="2">
         <v>224</v>
@@ -13646,10 +13634,10 @@
         <v>325</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D329" s="2">
         <v>13</v>
@@ -13678,10 +13666,10 @@
         <v>326</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D330" s="2">
         <v>156</v>
@@ -13710,10 +13698,10 @@
         <v>327</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D331" s="2">
         <v>21</v>
@@ -13742,10 +13730,10 @@
         <v>328</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D332" s="2">
         <v>1</v>
@@ -13774,10 +13762,10 @@
         <v>329</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D333" s="2">
         <v>282</v>
@@ -13805,10 +13793,10 @@
         <v>330</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D334" s="2">
         <v>273</v>
@@ -13836,10 +13824,10 @@
         <v>331</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D335" s="2">
         <v>108</v>
@@ -13868,10 +13856,10 @@
         <v>332</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D336" s="2">
         <v>175</v>
@@ -13900,10 +13888,10 @@
         <v>333</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="D337" s="2">
         <v>7</v>
@@ -13932,10 +13920,10 @@
         <v>334</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D338" s="2">
         <v>138</v>
@@ -13964,10 +13952,10 @@
         <v>335</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D339" s="2">
         <v>171</v>
@@ -13996,10 +13984,10 @@
         <v>336</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -14023,10 +14011,10 @@
         <v>337</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D341" s="2">
         <v>213</v>
@@ -14054,10 +14042,10 @@
         <v>338</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D342" s="2">
         <v>210</v>
@@ -14085,10 +14073,10 @@
         <v>339</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D343" s="2">
         <v>263</v>
@@ -14143,10 +14131,10 @@
         <v>341</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D345" s="2">
         <v>113</v>
@@ -14175,10 +14163,10 @@
         <v>342</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D346" s="2">
         <v>27</v>
@@ -14207,10 +14195,10 @@
         <v>343</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D347" s="2">
         <v>336</v>
@@ -14238,10 +14226,10 @@
         <v>344</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D348" s="2">
         <v>524</v>
@@ -14269,10 +14257,10 @@
         <v>345</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D349" s="2">
         <v>0</v>
@@ -14300,10 +14288,10 @@
         <v>346</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="D350" s="2">
         <v>0</v>
@@ -14331,10 +14319,10 @@
         <v>347</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D351" s="2">
         <v>0</v>
@@ -14362,10 +14350,10 @@
         <v>348</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="D352" s="2">
         <v>0</v>
@@ -14420,10 +14408,10 @@
         <v>350</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="D354" s="2">
         <v>1</v>
@@ -14452,10 +14440,10 @@
         <v>351</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="D355" s="2">
         <v>0</v>
@@ -14483,10 +14471,10 @@
         <v>352</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="D356" s="2">
         <v>0</v>
@@ -14514,10 +14502,10 @@
         <v>353</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D357" s="2">
         <v>47</v>
@@ -14546,10 +14534,10 @@
         <v>354</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="D358" s="2">
         <v>0</v>
@@ -14577,10 +14565,10 @@
         <v>355</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D359" s="2">
         <v>221</v>
@@ -14608,10 +14596,10 @@
         <v>356</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D360" s="2">
         <v>207</v>
@@ -14640,10 +14628,10 @@
         <v>357</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="D361" s="2">
         <v>0</v>
@@ -14671,10 +14659,10 @@
         <v>358</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D362" s="2">
         <v>146</v>
@@ -14703,10 +14691,10 @@
         <v>359</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D363" s="2">
         <v>112</v>
@@ -14735,10 +14723,10 @@
         <v>360</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D364" s="2">
         <v>112</v>
@@ -14767,10 +14755,10 @@
         <v>361</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D365" s="2">
         <v>71</v>
@@ -14799,10 +14787,10 @@
         <v>362</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D366" s="2">
         <v>99</v>
@@ -14831,10 +14819,10 @@
         <v>248</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="D367" s="2">
         <v>0</v>
@@ -14862,10 +14850,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D368" s="2">
         <v>0</v>
@@ -14893,10 +14881,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="D369" s="2">
         <v>0</v>
@@ -14924,10 +14912,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D370" s="2">
         <v>0</v>
@@ -14955,10 +14943,10 @@
         <v>249</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="D371" s="2">
         <v>0</v>
@@ -15011,10 +14999,10 @@
         <v>245</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="D373" s="2">
         <v>0</v>
@@ -15042,10 +15030,10 @@
         <v>244</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="D374" s="2">
         <v>0</v>
@@ -15073,10 +15061,10 @@
         <v>366</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D375" s="2">
         <v>196</v>
@@ -15105,10 +15093,10 @@
         <v>367</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D376" s="2">
         <v>118</v>
@@ -15137,10 +15125,10 @@
         <v>368</v>
       </c>
       <c r="B377" s="12" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D377" s="2">
         <v>9</v>
@@ -15169,10 +15157,10 @@
         <v>369</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D378" s="2">
         <v>98</v>
@@ -15201,10 +15189,10 @@
         <v>370</v>
       </c>
       <c r="B379" s="12" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="D379" s="2">
         <v>0</v>
@@ -15232,10 +15220,10 @@
         <v>371</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D380" s="2">
         <v>108</v>
@@ -15264,10 +15252,10 @@
         <v>372</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D381" s="2">
         <v>160</v>
@@ -15296,10 +15284,10 @@
         <v>373</v>
       </c>
       <c r="B382" s="12" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D382" s="2">
         <v>21</v>
@@ -15328,10 +15316,10 @@
         <v>374</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D383" s="2">
         <v>119</v>
@@ -15360,10 +15348,10 @@
         <v>375</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D384" s="2">
         <v>72</v>
@@ -15392,10 +15380,10 @@
         <v>376</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D385" s="2">
         <v>0</v>
@@ -15423,10 +15411,10 @@
         <v>377</v>
       </c>
       <c r="B386" s="12" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D386" s="2">
         <v>88</v>
@@ -15455,10 +15443,10 @@
         <v>378</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D387" s="2">
         <v>0</v>
@@ -15486,10 +15474,10 @@
         <v>379</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D388" s="2">
         <v>0</v>
@@ -15517,10 +15505,10 @@
         <v>380</v>
       </c>
       <c r="B389" s="12" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D389" s="2">
         <v>0</v>
@@ -15548,10 +15536,10 @@
         <v>381</v>
       </c>
       <c r="B390" s="12" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="D390" s="2">
         <v>8</v>
@@ -15580,10 +15568,10 @@
         <v>382</v>
       </c>
       <c r="B391" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="D391" s="2">
         <v>0</v>
@@ -15638,10 +15626,10 @@
         <v>384</v>
       </c>
       <c r="B393" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="D393" s="2">
         <v>0</v>
@@ -15669,10 +15657,10 @@
         <v>385</v>
       </c>
       <c r="B394" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="D394" s="2">
         <v>0</v>
@@ -15700,10 +15688,10 @@
         <v>386</v>
       </c>
       <c r="B395" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="D395" s="2">
         <v>0</v>
@@ -15731,10 +15719,10 @@
         <v>387</v>
       </c>
       <c r="B396" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="D396" s="2">
         <v>0</v>
@@ -15762,10 +15750,10 @@
         <v>388</v>
       </c>
       <c r="B397" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="D397" s="2">
         <v>0</v>
@@ -15793,10 +15781,10 @@
         <v>389</v>
       </c>
       <c r="B398" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D398" s="2">
         <v>147</v>
@@ -15825,10 +15813,10 @@
         <v>390</v>
       </c>
       <c r="B399" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D399" s="2">
         <v>180</v>
@@ -15857,10 +15845,10 @@
         <v>391</v>
       </c>
       <c r="B400" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="D400" s="2">
         <v>0</v>
@@ -15888,10 +15876,10 @@
         <v>392</v>
       </c>
       <c r="B401" s="12" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D401" s="2">
         <v>10</v>
@@ -15920,10 +15908,10 @@
         <v>393</v>
       </c>
       <c r="B402" s="12" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D402" s="2">
         <v>112</v>
@@ -15952,10 +15940,10 @@
         <v>394</v>
       </c>
       <c r="B403" s="12" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D403" s="2">
         <v>74</v>
@@ -15984,10 +15972,10 @@
         <v>395</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>831</v>
+        <v>896</v>
       </c>
       <c r="D404" s="8">
         <v>0</v>
@@ -16015,10 +16003,10 @@
         <v>396</v>
       </c>
       <c r="B405" s="12" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D405" s="2">
         <v>0</v>
@@ -16046,7 +16034,7 @@
         <v>397</v>
       </c>
       <c r="B406" s="12" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2">
@@ -16075,10 +16063,10 @@
         <v>398</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="D407" s="2">
         <v>0</v>
@@ -16106,10 +16094,10 @@
         <v>398</v>
       </c>
       <c r="B408" s="12" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D408" s="2">
         <v>0</v>
@@ -16137,10 +16125,10 @@
         <v>399</v>
       </c>
       <c r="B409" s="12" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D409" s="2">
         <v>59</v>
@@ -16169,10 +16157,10 @@
         <v>400</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D410" s="2">
         <v>144</v>
@@ -16201,10 +16189,10 @@
         <v>401</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D411" s="2">
         <v>0</v>
@@ -16232,10 +16220,10 @@
         <v>402</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="D412" s="2">
         <v>0</v>
@@ -16263,10 +16251,10 @@
         <v>403</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D413" s="2">
         <v>0</v>
@@ -16294,10 +16282,10 @@
         <v>404</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="D414" s="2">
         <v>0</v>
@@ -16325,10 +16313,10 @@
         <v>405</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="D415" s="2">
         <v>0</v>
@@ -16356,10 +16344,10 @@
         <v>406</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="D416" s="2">
         <v>0</v>
@@ -16387,10 +16375,10 @@
         <v>407</v>
       </c>
       <c r="B417" s="12" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D417" s="2">
         <v>207</v>
@@ -16419,10 +16407,10 @@
         <v>408</v>
       </c>
       <c r="B418" s="12" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D418" s="2">
         <v>1</v>
@@ -16451,10 +16439,10 @@
         <v>409</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D419" s="2">
         <v>174</v>
@@ -16483,10 +16471,10 @@
         <v>410</v>
       </c>
       <c r="B420" s="12" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="D420" s="2">
         <v>0</v>
@@ -16514,10 +16502,10 @@
         <v>411</v>
       </c>
       <c r="B421" s="12" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D421" s="2">
         <v>13</v>
@@ -16546,10 +16534,10 @@
         <v>412</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="D422" s="2">
         <v>0</v>
@@ -16577,10 +16565,10 @@
         <v>413</v>
       </c>
       <c r="B423" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="D423" s="2">
         <v>0</v>
@@ -16608,10 +16596,10 @@
         <v>414</v>
       </c>
       <c r="B424" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="D424" s="2">
         <v>0</v>
@@ -16639,10 +16627,10 @@
         <v>415</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D425" s="5">
         <v>0</v>
@@ -16670,10 +16658,10 @@
         <v>416</v>
       </c>
       <c r="B426" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="D426" s="2">
         <v>0</v>
@@ -16701,10 +16689,10 @@
         <v>417</v>
       </c>
       <c r="B427" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D427" s="2">
         <v>253</v>
@@ -16732,10 +16720,10 @@
         <v>418</v>
       </c>
       <c r="B428" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="D428" s="2">
         <v>0</v>
@@ -16763,10 +16751,10 @@
         <v>419</v>
       </c>
       <c r="B429" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D429" s="2">
         <v>0</v>
@@ -16794,10 +16782,10 @@
         <v>420</v>
       </c>
       <c r="B430" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D430" s="2">
         <v>97</v>
@@ -16826,10 +16814,10 @@
         <v>421</v>
       </c>
       <c r="B431" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D431" s="2">
         <v>73</v>
@@ -16858,10 +16846,10 @@
         <v>422</v>
       </c>
       <c r="B432" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D432" s="2">
         <v>11</v>
@@ -16890,10 +16878,10 @@
         <v>423</v>
       </c>
       <c r="B433" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D433" s="2">
         <v>0</v>
@@ -16921,10 +16909,10 @@
         <v>424</v>
       </c>
       <c r="B434" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D434" s="2">
         <v>190</v>
@@ -16953,10 +16941,10 @@
         <v>425</v>
       </c>
       <c r="B435" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D435" s="2">
         <v>0</v>
@@ -16984,10 +16972,10 @@
         <v>426</v>
       </c>
       <c r="B436" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="D436" s="2">
         <v>96</v>
@@ -17016,10 +17004,10 @@
         <v>427</v>
       </c>
       <c r="B437" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D437" s="2">
         <v>226</v>
@@ -17048,10 +17036,10 @@
         <v>428</v>
       </c>
       <c r="B438" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D438" s="2">
         <v>0</v>
@@ -17079,10 +17067,10 @@
         <v>429</v>
       </c>
       <c r="B439" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="D439" s="2">
         <v>0</v>
@@ -17110,10 +17098,10 @@
         <v>430</v>
       </c>
       <c r="B440" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D440" s="2">
         <v>81</v>
@@ -17142,10 +17130,10 @@
         <v>431</v>
       </c>
       <c r="B441" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="D441" s="2">
         <v>0</v>
@@ -17173,10 +17161,10 @@
         <v>432</v>
       </c>
       <c r="B442" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="D442" s="2">
         <v>7</v>
@@ -17205,10 +17193,10 @@
         <v>433</v>
       </c>
       <c r="B443" s="12" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="D443" s="2">
         <v>0</v>
@@ -17236,10 +17224,10 @@
         <v>434</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>712</v>
+        <v>891</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="D444" s="7">
         <v>0</v>
@@ -17267,10 +17255,10 @@
         <v>435</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>712</v>
+        <v>891</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="D445" s="7">
         <v>0</v>
@@ -17298,10 +17286,10 @@
         <v>436</v>
       </c>
       <c r="B446" s="12" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D446" s="2">
         <v>0</v>
@@ -17329,10 +17317,10 @@
         <v>437</v>
       </c>
       <c r="B447" s="12" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D447" s="2">
         <v>48</v>
@@ -17361,10 +17349,10 @@
         <v>438</v>
       </c>
       <c r="B448" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D448" s="2">
         <v>0</v>
@@ -17392,10 +17380,10 @@
         <v>439</v>
       </c>
       <c r="B449" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D449" s="2">
         <v>108</v>
@@ -17424,10 +17412,10 @@
         <v>440</v>
       </c>
       <c r="B450" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D450" s="2">
         <v>160</v>
@@ -17456,10 +17444,10 @@
         <v>441</v>
       </c>
       <c r="B451" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D451" s="2">
         <v>158</v>
@@ -17488,10 +17476,10 @@
         <v>442</v>
       </c>
       <c r="B452" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D452" s="2">
         <v>119</v>
@@ -17520,10 +17508,10 @@
         <v>443</v>
       </c>
       <c r="B453" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D453" s="2">
         <v>0</v>
@@ -17551,10 +17539,10 @@
         <v>444</v>
       </c>
       <c r="B454" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D454" s="2">
         <v>0</v>
@@ -17582,10 +17570,10 @@
         <v>445</v>
       </c>
       <c r="B455" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="D455" s="2">
         <v>0</v>
@@ -17613,10 +17601,10 @@
         <v>446</v>
       </c>
       <c r="B456" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D456" s="2">
         <v>0</v>
@@ -17644,10 +17632,10 @@
         <v>447</v>
       </c>
       <c r="B457" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="D457" s="2">
         <v>0</v>
@@ -17675,10 +17663,10 @@
         <v>448</v>
       </c>
       <c r="B458" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D458" s="2">
         <v>100</v>
@@ -17707,10 +17695,10 @@
         <v>449</v>
       </c>
       <c r="B459" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D459" s="2">
         <v>150</v>
@@ -17739,10 +17727,10 @@
         <v>450</v>
       </c>
       <c r="B460" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D460" s="2">
         <v>64</v>
@@ -17771,10 +17759,10 @@
         <v>451</v>
       </c>
       <c r="B461" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="D461" s="2">
         <v>0</v>
@@ -17802,10 +17790,10 @@
         <v>452</v>
       </c>
       <c r="B462" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D462" s="2">
         <v>65</v>
@@ -17834,10 +17822,10 @@
         <v>453</v>
       </c>
       <c r="B463" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D463" s="2">
         <v>47</v>
@@ -17866,10 +17854,10 @@
         <v>454</v>
       </c>
       <c r="B464" s="12" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D464" s="2">
         <v>0</v>
@@ -17897,10 +17885,10 @@
         <v>455</v>
       </c>
       <c r="B465" s="12" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D465" s="2">
         <v>0</v>
@@ -17928,10 +17916,10 @@
         <v>456</v>
       </c>
       <c r="B466" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D466" s="2">
         <v>65</v>
@@ -17960,10 +17948,10 @@
         <v>457</v>
       </c>
       <c r="B467" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D467" s="2">
         <v>0</v>
@@ -17991,10 +17979,10 @@
         <v>458</v>
       </c>
       <c r="B468" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D468" s="2">
         <v>0</v>
@@ -18022,10 +18010,10 @@
         <v>459</v>
       </c>
       <c r="B469" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="D469" s="2">
         <v>0</v>
@@ -18053,10 +18041,10 @@
         <v>460</v>
       </c>
       <c r="B470" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="D470" s="2">
         <v>0</v>
@@ -18084,10 +18072,10 @@
         <v>461</v>
       </c>
       <c r="B471" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="D471" s="2">
         <v>0</v>
@@ -18115,10 +18103,10 @@
         <v>462</v>
       </c>
       <c r="B472" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D472" s="2">
         <v>112</v>
@@ -18147,10 +18135,10 @@
         <v>463</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="D473" s="2">
         <v>0</v>
@@ -18178,10 +18166,10 @@
         <v>464</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="D474" s="2">
         <v>0</v>
@@ -18209,10 +18197,10 @@
         <v>465</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="D475" s="2">
         <v>0</v>
@@ -18240,10 +18228,10 @@
         <v>466</v>
       </c>
       <c r="B476" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="D476" s="2">
         <v>0</v>
@@ -18271,10 +18259,10 @@
         <v>467</v>
       </c>
       <c r="B477" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="D477" s="2">
         <v>0</v>
@@ -18302,10 +18290,10 @@
         <v>468</v>
       </c>
       <c r="B478" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -18329,10 +18317,10 @@
         <v>469</v>
       </c>
       <c r="B479" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D479" s="2">
         <v>53</v>
@@ -18361,10 +18349,10 @@
         <v>470</v>
       </c>
       <c r="B480" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D480" s="2">
         <v>0</v>
@@ -18392,10 +18380,10 @@
         <v>471</v>
       </c>
       <c r="B481" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="D481" s="2">
         <v>0</v>
@@ -18423,10 +18411,10 @@
         <v>472</v>
       </c>
       <c r="B482" s="12" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D482" s="2">
         <v>61</v>
@@ -18455,10 +18443,10 @@
         <v>473</v>
       </c>
       <c r="B483" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D483" s="2">
         <v>142</v>
@@ -18487,10 +18475,10 @@
         <v>474</v>
       </c>
       <c r="B484" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D484" s="2">
         <v>162</v>
@@ -18519,10 +18507,10 @@
         <v>475</v>
       </c>
       <c r="B485" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="D485" s="2">
         <v>0</v>
@@ -18550,10 +18538,10 @@
         <v>476</v>
       </c>
       <c r="B486" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D486" s="2">
         <v>83</v>
@@ -18582,10 +18570,10 @@
         <v>477</v>
       </c>
       <c r="B487" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D487" s="2">
         <v>161</v>
@@ -18614,10 +18602,10 @@
         <v>478</v>
       </c>
       <c r="B488" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="D488" s="2">
         <v>0</v>
@@ -18645,10 +18633,10 @@
         <v>479</v>
       </c>
       <c r="B489" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D489" s="2">
         <v>104</v>
@@ -18677,10 +18665,10 @@
         <v>480</v>
       </c>
       <c r="B490" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D490" s="2">
         <v>0</v>
@@ -18708,10 +18696,10 @@
         <v>481</v>
       </c>
       <c r="B491" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D491" s="2">
         <v>0</v>
@@ -18739,10 +18727,10 @@
         <v>482</v>
       </c>
       <c r="B492" s="12" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D492" s="2">
         <v>0</v>
@@ -18770,10 +18758,10 @@
         <v>483</v>
       </c>
       <c r="B493" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D493" s="2">
         <v>16</v>
@@ -18802,10 +18790,10 @@
         <v>484</v>
       </c>
       <c r="B494" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D494" s="2">
         <v>150</v>
@@ -18834,10 +18822,10 @@
         <v>485</v>
       </c>
       <c r="B495" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D495" s="2">
         <v>0</v>
@@ -18865,10 +18853,10 @@
         <v>486</v>
       </c>
       <c r="B496" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D496" s="2">
         <v>101</v>
@@ -18897,10 +18885,10 @@
         <v>487</v>
       </c>
       <c r="B497" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D497" s="2">
         <v>66</v>
@@ -18929,10 +18917,10 @@
         <v>488</v>
       </c>
       <c r="B498" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D498" s="2">
         <v>5</v>
@@ -18961,10 +18949,10 @@
         <v>489</v>
       </c>
       <c r="B499" s="12" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D499" s="2">
         <v>62</v>
@@ -18993,10 +18981,10 @@
         <v>490</v>
       </c>
       <c r="B500" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="D500" s="2">
         <v>0</v>
@@ -19024,10 +19012,10 @@
         <v>491</v>
       </c>
       <c r="B501" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D501" s="2">
         <v>160</v>
@@ -19056,10 +19044,10 @@
         <v>492</v>
       </c>
       <c r="B502" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D502" s="2">
         <v>160</v>
@@ -19088,10 +19076,10 @@
         <v>493</v>
       </c>
       <c r="B503" s="12" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D503" s="2">
         <v>203</v>
@@ -19120,10 +19108,10 @@
         <v>494</v>
       </c>
       <c r="B504" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="D504" s="2">
         <v>0</v>
@@ -19151,10 +19139,10 @@
         <v>495</v>
       </c>
       <c r="B505" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D505" s="2">
         <v>2</v>
@@ -19183,10 +19171,10 @@
         <v>496</v>
       </c>
       <c r="B506" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D506" s="2">
         <v>0</v>
@@ -19214,10 +19202,10 @@
         <v>497</v>
       </c>
       <c r="B507" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D507" s="2">
         <v>0</v>
@@ -19245,10 +19233,10 @@
         <v>498</v>
       </c>
       <c r="B508" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D508" s="2">
         <v>0</v>
@@ -19276,10 +19264,10 @@
         <v>499</v>
       </c>
       <c r="B509" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D509" s="2">
         <v>0</v>
@@ -19307,10 +19295,10 @@
         <v>500</v>
       </c>
       <c r="B510" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D510" s="2">
         <v>0</v>
@@ -19338,10 +19326,10 @@
         <v>501</v>
       </c>
       <c r="B511" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D511" s="2">
         <v>0</v>
@@ -19369,10 +19357,10 @@
         <v>502</v>
       </c>
       <c r="B512" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="D512" s="2">
         <v>113</v>
@@ -19401,10 +19389,10 @@
         <v>503</v>
       </c>
       <c r="B513" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D513" s="2">
         <v>157</v>
@@ -19433,10 +19421,10 @@
         <v>504</v>
       </c>
       <c r="B514" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D514" s="2">
         <v>89</v>
@@ -19465,10 +19453,10 @@
         <v>505</v>
       </c>
       <c r="B515" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D515" s="2">
         <v>163</v>
@@ -19497,10 +19485,10 @@
         <v>506</v>
       </c>
       <c r="B516" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D516" s="2">
         <v>233</v>
@@ -19529,10 +19517,10 @@
         <v>507</v>
       </c>
       <c r="B517" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D517" s="2">
         <v>170</v>
@@ -19561,10 +19549,10 @@
         <v>508</v>
       </c>
       <c r="B518" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D518" s="2">
         <v>0</v>
@@ -19592,10 +19580,10 @@
         <v>509</v>
       </c>
       <c r="B519" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="D519" s="2">
         <v>0</v>
@@ -19623,10 +19611,10 @@
         <v>510</v>
       </c>
       <c r="B520" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D520" s="2">
         <v>0</v>
@@ -19654,10 +19642,10 @@
         <v>511</v>
       </c>
       <c r="B521" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D521" s="2">
         <v>31</v>
@@ -19686,10 +19674,10 @@
         <v>512</v>
       </c>
       <c r="B522" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="D522" s="2">
         <v>0</v>
@@ -19717,10 +19705,10 @@
         <v>513</v>
       </c>
       <c r="B523" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="D523" s="2">
         <v>0</v>
@@ -19748,10 +19736,10 @@
         <v>514</v>
       </c>
       <c r="B524" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="D524" s="2">
         <v>0</v>
@@ -19779,10 +19767,10 @@
         <v>515</v>
       </c>
       <c r="B525" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D525" s="2">
         <v>5</v>
@@ -19811,10 +19799,10 @@
         <v>516</v>
       </c>
       <c r="B526" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="D526" s="2">
         <v>0</v>
@@ -19842,10 +19830,10 @@
         <v>517</v>
       </c>
       <c r="B527" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D527" s="2">
         <v>52</v>
@@ -19874,10 +19862,10 @@
         <v>518</v>
       </c>
       <c r="B528" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D528" s="2">
         <v>0</v>
@@ -19905,10 +19893,10 @@
         <v>519</v>
       </c>
       <c r="B529" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D529" s="2">
         <v>186</v>
@@ -19937,10 +19925,10 @@
         <v>520</v>
       </c>
       <c r="B530" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D530" s="2">
         <v>190</v>
@@ -19969,10 +19957,10 @@
         <v>521</v>
       </c>
       <c r="B531" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D531" s="2">
         <v>64</v>
@@ -20001,10 +19989,10 @@
         <v>522</v>
       </c>
       <c r="B532" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D532" s="2">
         <v>0</v>
@@ -20032,10 +20020,10 @@
         <v>523</v>
       </c>
       <c r="B533" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D533" s="2">
         <v>51</v>
@@ -20064,10 +20052,10 @@
         <v>524</v>
       </c>
       <c r="B534" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D534" s="2">
         <v>131</v>
@@ -20096,10 +20084,10 @@
         <v>525</v>
       </c>
       <c r="B535" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D535" s="2">
         <v>120</v>
@@ -20128,10 +20116,10 @@
         <v>526</v>
       </c>
       <c r="B536" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D536" s="2">
         <v>0</v>
@@ -20159,10 +20147,10 @@
         <v>527</v>
       </c>
       <c r="B537" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D537" s="2">
         <v>0</v>
@@ -20190,10 +20178,10 @@
         <v>528</v>
       </c>
       <c r="B538" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D538" s="2">
         <v>0</v>
@@ -20221,10 +20209,10 @@
         <v>529</v>
       </c>
       <c r="B539" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D539" s="2">
         <v>0</v>
@@ -20252,10 +20240,10 @@
         <v>530</v>
       </c>
       <c r="B540" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D540" s="2">
         <v>0</v>
@@ -20283,10 +20271,10 @@
         <v>523</v>
       </c>
       <c r="B541" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D541" s="2">
         <v>51</v>
@@ -20315,10 +20303,10 @@
         <v>524</v>
       </c>
       <c r="B542" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D542" s="2">
         <v>131</v>
@@ -20347,10 +20335,10 @@
         <v>525</v>
       </c>
       <c r="B543" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D543" s="2">
         <v>120</v>
@@ -20379,10 +20367,10 @@
         <v>526</v>
       </c>
       <c r="B544" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D544" s="2">
         <v>0</v>
@@ -20410,10 +20398,10 @@
         <v>527</v>
       </c>
       <c r="B545" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D545" s="2">
         <v>0</v>
@@ -20441,10 +20429,10 @@
         <v>528</v>
       </c>
       <c r="B546" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D546" s="2">
         <v>0</v>
@@ -20472,10 +20460,10 @@
         <v>529</v>
       </c>
       <c r="B547" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D547" s="2">
         <v>0</v>
@@ -20503,10 +20491,10 @@
         <v>531</v>
       </c>
       <c r="B548" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D548" s="2">
         <v>218</v>
@@ -20535,10 +20523,10 @@
         <v>532</v>
       </c>
       <c r="B549" s="12" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D549" s="2">
         <v>141</v>
@@ -20567,10 +20555,10 @@
         <v>533</v>
       </c>
       <c r="B550" s="12" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="D550" s="2">
         <v>0</v>
@@ -20598,10 +20586,10 @@
         <v>534</v>
       </c>
       <c r="B551" s="12" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D551" s="2">
         <v>164</v>
@@ -20630,10 +20618,10 @@
         <v>535</v>
       </c>
       <c r="B552" s="12" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D552" s="2">
         <v>79</v>
@@ -20662,10 +20650,10 @@
         <v>536</v>
       </c>
       <c r="B553" s="12" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="D553" s="2">
         <v>0</v>
@@ -20693,10 +20681,10 @@
         <v>537</v>
       </c>
       <c r="B554" s="12" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D554" s="2">
         <v>0</v>
@@ -20724,7 +20712,7 @@
         <v>538</v>
       </c>
       <c r="B555" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C555" s="5"/>
       <c r="D555" s="2">
@@ -20753,10 +20741,10 @@
         <v>539</v>
       </c>
       <c r="B556" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C556" s="5" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="D556" s="5">
         <v>0</v>
@@ -20784,10 +20772,10 @@
         <v>540</v>
       </c>
       <c r="B557" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="D557" s="5">
         <v>0</v>
@@ -20815,10 +20803,10 @@
         <v>541</v>
       </c>
       <c r="B558" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C558" s="5" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="D558" s="5">
         <v>0</v>
@@ -20846,10 +20834,10 @@
         <v>542</v>
       </c>
       <c r="B559" s="13" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="D559" s="5">
         <v>0</v>
@@ -20877,10 +20865,10 @@
         <v>543</v>
       </c>
       <c r="B560" s="13" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C560" s="5" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="D560" s="5">
         <v>0</v>
@@ -20908,10 +20896,10 @@
         <v>544</v>
       </c>
       <c r="B561" s="14" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="D561" s="2">
         <v>0</v>
@@ -20939,10 +20927,10 @@
         <v>545</v>
       </c>
       <c r="B562" s="12" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D562" s="2">
         <v>0</v>
@@ -20970,10 +20958,10 @@
         <v>546</v>
       </c>
       <c r="B563" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D563" s="2">
         <v>120</v>
@@ -21002,10 +20990,10 @@
         <v>547</v>
       </c>
       <c r="B564" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D564" s="2">
         <v>185</v>
@@ -21035,7 +21023,7 @@
       </c>
       <c r="B565" s="12"/>
       <c r="C565" s="2" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="D565" s="2">
         <v>0</v>
@@ -21064,7 +21052,7 @@
       </c>
       <c r="B566" s="12"/>
       <c r="C566" s="2" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="D566" s="2">
         <v>0</v>
@@ -21092,10 +21080,10 @@
         <v>550</v>
       </c>
       <c r="B567" s="12" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D567" s="2">
         <v>54</v>
@@ -21124,10 +21112,10 @@
         <v>551</v>
       </c>
       <c r="B568" s="12" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D568" s="2">
         <v>172</v>
@@ -21156,10 +21144,10 @@
         <v>552</v>
       </c>
       <c r="B569" s="12" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D569" s="2">
         <v>36</v>
@@ -21188,10 +21176,10 @@
         <v>553</v>
       </c>
       <c r="B570" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D570" s="2">
         <v>26</v>
@@ -21220,10 +21208,10 @@
         <v>554</v>
       </c>
       <c r="B571" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="D571" s="2">
         <v>0</v>
@@ -21251,10 +21239,10 @@
         <v>555</v>
       </c>
       <c r="B572" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D572" s="2">
         <v>0</v>
@@ -21282,10 +21270,10 @@
         <v>556</v>
       </c>
       <c r="B573" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="D573" s="5">
         <v>0</v>
@@ -21313,10 +21301,10 @@
         <v>557</v>
       </c>
       <c r="B574" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D574" s="2">
         <v>239</v>
@@ -21344,10 +21332,10 @@
         <v>558</v>
       </c>
       <c r="B575" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D575" s="2">
         <v>292</v>
@@ -21376,10 +21364,10 @@
         <v>559</v>
       </c>
       <c r="B576" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D576" s="2">
         <v>22</v>
@@ -21408,10 +21396,10 @@
         <v>560</v>
       </c>
       <c r="B577" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D577" s="2">
         <v>288</v>
@@ -21440,10 +21428,10 @@
         <v>561</v>
       </c>
       <c r="B578" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="D578" s="2">
         <v>0</v>
@@ -21471,10 +21459,10 @@
         <v>562</v>
       </c>
       <c r="B579" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D579" s="2">
         <v>0</v>
@@ -21502,10 +21490,10 @@
         <v>563</v>
       </c>
       <c r="B580" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="D580" s="2">
         <v>0</v>
@@ -21533,10 +21521,10 @@
         <v>564</v>
       </c>
       <c r="B581" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D581" s="2">
         <v>0</v>
@@ -21564,7 +21552,7 @@
         <v>565</v>
       </c>
       <c r="B582" s="12" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2">
@@ -21593,10 +21581,10 @@
         <v>566</v>
       </c>
       <c r="B583" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D583" s="2">
         <v>269</v>
@@ -21624,10 +21612,10 @@
         <v>567</v>
       </c>
       <c r="B584" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D584" s="2">
         <v>190</v>
@@ -21656,10 +21644,10 @@
         <v>568</v>
       </c>
       <c r="B585" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D585" s="2">
         <v>183</v>
@@ -21688,10 +21676,10 @@
         <v>569</v>
       </c>
       <c r="B586" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D586" s="2">
         <v>273</v>
@@ -21719,10 +21707,10 @@
         <v>570</v>
       </c>
       <c r="B587" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="D587" s="2">
         <v>0</v>
@@ -21750,10 +21738,10 @@
         <v>571</v>
       </c>
       <c r="B588" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="D588" s="2">
         <v>0</v>
@@ -21781,10 +21769,10 @@
         <v>572</v>
       </c>
       <c r="B589" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D589" s="2">
         <v>104</v>
@@ -21813,10 +21801,10 @@
         <v>573</v>
       </c>
       <c r="B590" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="D590" s="2">
         <v>0</v>
@@ -21844,10 +21832,10 @@
         <v>574</v>
       </c>
       <c r="B591" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D591" s="2">
         <v>49</v>
@@ -21877,7 +21865,7 @@
       </c>
       <c r="B592" s="14"/>
       <c r="C592" s="7" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D592" s="2">
         <v>0</v>
@@ -21905,10 +21893,10 @@
         <v>576</v>
       </c>
       <c r="B593" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="D593" s="2">
         <v>0</v>
@@ -21936,10 +21924,10 @@
         <v>577</v>
       </c>
       <c r="B594" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="D594" s="2">
         <v>0</v>
@@ -21967,10 +21955,10 @@
         <v>578</v>
       </c>
       <c r="B595" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D595" s="2">
         <v>283</v>
@@ -21998,10 +21986,10 @@
         <v>579</v>
       </c>
       <c r="B596" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D596" s="2">
         <v>206</v>
@@ -22029,10 +22017,10 @@
         <v>580</v>
       </c>
       <c r="B597" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D597" s="2">
         <v>50</v>
@@ -22061,10 +22049,10 @@
         <v>581</v>
       </c>
       <c r="B598" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D598" s="2">
         <v>226</v>
@@ -22092,10 +22080,10 @@
         <v>582</v>
       </c>
       <c r="B599" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
@@ -22119,10 +22107,10 @@
         <v>583</v>
       </c>
       <c r="B600" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D600" s="2">
         <v>49</v>
@@ -22151,10 +22139,10 @@
         <v>584</v>
       </c>
       <c r="B601" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" s="2">
@@ -22180,10 +22168,10 @@
         <v>585</v>
       </c>
       <c r="B602" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="D602" s="2">
         <v>0</v>
@@ -22211,10 +22199,10 @@
         <v>586</v>
       </c>
       <c r="B603" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="D603" s="2">
         <v>0</v>
@@ -22242,10 +22230,10 @@
         <v>587</v>
       </c>
       <c r="B604" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D604" s="2">
         <v>0</v>
@@ -22273,10 +22261,10 @@
         <v>588</v>
       </c>
       <c r="B605" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D605" s="2">
         <v>0</v>
@@ -22304,10 +22292,10 @@
         <v>589</v>
       </c>
       <c r="B606" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="D606" s="2">
         <v>0</v>
@@ -22335,10 +22323,10 @@
         <v>590</v>
       </c>
       <c r="B607" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D607" s="2">
         <v>0</v>
@@ -22366,10 +22354,10 @@
         <v>591</v>
       </c>
       <c r="B608" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D608" s="2">
         <v>0</v>
@@ -22397,10 +22385,10 @@
         <v>592</v>
       </c>
       <c r="B609" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D609" s="2">
         <v>91</v>
@@ -22429,10 +22417,10 @@
         <v>593</v>
       </c>
       <c r="B610" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D610" s="2">
         <v>0</v>
@@ -22460,10 +22448,10 @@
         <v>594</v>
       </c>
       <c r="B611" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D611" s="2">
         <v>0</v>
@@ -22491,10 +22479,10 @@
         <v>595</v>
       </c>
       <c r="B612" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D612" s="2">
         <v>0</v>
@@ -22522,10 +22510,10 @@
         <v>596</v>
       </c>
       <c r="B613" s="12" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D613" s="2">
         <v>102</v>
@@ -22554,10 +22542,10 @@
         <v>597</v>
       </c>
       <c r="B614" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="D614" s="2">
         <v>1</v>
@@ -22586,10 +22574,10 @@
         <v>598</v>
       </c>
       <c r="B615" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="D615" s="2">
         <v>0</v>
@@ -22617,10 +22605,10 @@
         <v>599</v>
       </c>
       <c r="B616" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="C616" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="C616" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="D616" s="2">
         <v>0</v>
@@ -22648,10 +22636,10 @@
         <v>600</v>
       </c>
       <c r="B617" s="12" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
       <c r="D617" s="2">
         <v>0</v>
@@ -22679,10 +22667,10 @@
         <v>601</v>
       </c>
       <c r="B618" s="12" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="D618" s="2">
         <v>0</v>
@@ -22710,10 +22698,10 @@
         <v>602</v>
       </c>
       <c r="B619" s="12" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="D619" s="2">
         <v>0</v>
@@ -22741,10 +22729,10 @@
         <v>603</v>
       </c>
       <c r="B620" s="12" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
       <c r="D620" s="2">
         <v>0</v>
@@ -22772,10 +22760,10 @@
         <v>604</v>
       </c>
       <c r="B621" s="12" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D621" s="2">
         <v>94</v>
@@ -22804,10 +22792,10 @@
         <v>605</v>
       </c>
       <c r="B622" s="12" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D622" s="2">
         <v>65</v>
@@ -22836,10 +22824,10 @@
         <v>606</v>
       </c>
       <c r="B623" s="12" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D623" s="2">
         <v>40</v>
@@ -22868,10 +22856,10 @@
         <v>607</v>
       </c>
       <c r="B624" s="12" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D624" s="2">
         <v>40</v>
@@ -22900,10 +22888,10 @@
         <v>608</v>
       </c>
       <c r="B625" s="12" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D625" s="2">
         <v>88</v>
@@ -22932,10 +22920,10 @@
         <v>609</v>
       </c>
       <c r="B626" s="12" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D626" s="2">
         <v>76</v>
@@ -22964,10 +22952,10 @@
         <v>610</v>
       </c>
       <c r="B627" s="12" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D627" s="2">
         <v>33</v>
@@ -22996,10 +22984,10 @@
         <v>611</v>
       </c>
       <c r="B628" s="12" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D628" s="2">
         <v>106</v>
@@ -23028,10 +23016,10 @@
         <v>612</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D629" s="2">
         <v>136</v>
@@ -23060,10 +23048,10 @@
         <v>613</v>
       </c>
       <c r="B630" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D630" s="2">
         <v>151</v>
@@ -23092,10 +23080,10 @@
         <v>614</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D631" s="2">
         <v>0</v>
@@ -23123,10 +23111,10 @@
         <v>615</v>
       </c>
       <c r="B632" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D632" s="2">
         <v>0</v>
@@ -23154,10 +23142,10 @@
         <v>616</v>
       </c>
       <c r="B633" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D633" s="2">
         <v>0</v>
@@ -23185,10 +23173,10 @@
         <v>617</v>
       </c>
       <c r="B634" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D634" s="2">
         <v>98</v>
@@ -23217,10 +23205,10 @@
         <v>618</v>
       </c>
       <c r="B635" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D635" s="2">
         <v>185</v>
@@ -23249,10 +23237,10 @@
         <v>619</v>
       </c>
       <c r="B636" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D636" s="2">
         <v>9</v>
@@ -23281,10 +23269,10 @@
         <v>620</v>
       </c>
       <c r="B637" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D637" s="2">
         <v>9</v>
@@ -23313,10 +23301,10 @@
         <v>621</v>
       </c>
       <c r="B638" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D638" s="2">
         <v>191</v>
@@ -23345,10 +23333,10 @@
         <v>622</v>
       </c>
       <c r="B639" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="D639" s="2">
         <v>0</v>
@@ -23376,10 +23364,10 @@
         <v>623</v>
       </c>
       <c r="B640" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D640" s="2">
         <v>47</v>
@@ -23408,10 +23396,10 @@
         <v>624</v>
       </c>
       <c r="B641" s="12" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D641" s="2">
         <v>149</v>
@@ -23440,10 +23428,10 @@
         <v>625</v>
       </c>
       <c r="B642" s="12" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D642" s="2">
         <v>33</v>
@@ -23472,10 +23460,10 @@
         <v>626</v>
       </c>
       <c r="B643" s="12" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="D643" s="2">
         <v>0</v>
@@ -23503,10 +23491,10 @@
         <v>627</v>
       </c>
       <c r="B644" s="12" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D644" s="2">
         <v>167</v>
@@ -23535,10 +23523,10 @@
         <v>628</v>
       </c>
       <c r="B645" s="12" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D645" s="2">
         <v>0</v>
@@ -23566,10 +23554,10 @@
         <v>629</v>
       </c>
       <c r="B646" s="12" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D646" s="2">
         <v>184</v>
@@ -23598,10 +23586,10 @@
         <v>630</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="D647" s="2">
         <v>0</v>
@@ -23629,10 +23617,10 @@
         <v>631</v>
       </c>
       <c r="B648" s="12" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D648" s="2">
         <v>0</v>
@@ -23660,10 +23648,10 @@
         <v>632</v>
       </c>
       <c r="B649" s="13" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D649" s="2">
         <v>86</v>
@@ -23693,7 +23681,7 @@
       </c>
       <c r="B650" s="13"/>
       <c r="C650" s="5" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="D650" s="2">
         <v>0</v>
@@ -23721,10 +23709,10 @@
         <v>634</v>
       </c>
       <c r="B651" s="13" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D651" s="5">
         <v>0</v>
@@ -23752,10 +23740,10 @@
         <v>635</v>
       </c>
       <c r="B652" s="13" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C652" s="5" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="D652" s="5">
         <v>0</v>
@@ -23783,10 +23771,10 @@
         <v>636</v>
       </c>
       <c r="B653" s="13" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="D653" s="5">
         <v>0</v>
@@ -23814,10 +23802,10 @@
         <v>637</v>
       </c>
       <c r="B654" s="13" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D654" s="5">
         <v>131</v>
@@ -23846,10 +23834,10 @@
         <v>638</v>
       </c>
       <c r="B655" s="13" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D655" s="5">
         <v>69</v>
@@ -23878,10 +23866,10 @@
         <v>639</v>
       </c>
       <c r="B656" s="13" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C656" s="5" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D656" s="5">
         <v>71</v>
@@ -23910,10 +23898,10 @@
         <v>640</v>
       </c>
       <c r="B657" s="13" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D657" s="2">
         <v>147</v>
@@ -23942,10 +23930,10 @@
         <v>641</v>
       </c>
       <c r="B658" s="13" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D658" s="2">
         <v>147</v>
@@ -23974,10 +23962,10 @@
         <v>642</v>
       </c>
       <c r="B659" s="13" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D659" s="2">
         <v>391</v>
@@ -24005,10 +23993,10 @@
         <v>643</v>
       </c>
       <c r="B660" s="13" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D660" s="2">
         <v>103</v>
@@ -24037,10 +24025,10 @@
         <v>644</v>
       </c>
       <c r="B661" s="13" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D661" s="2">
         <v>225</v>
@@ -24066,13 +24054,13 @@
     </row>
     <row r="662" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A662" s="7" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="B662" s="12" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D662" s="2">
         <v>10</v>
@@ -24098,13 +24086,13 @@
     </row>
     <row r="663" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A663" s="7" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="B663" s="12" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D663" s="2">
         <v>74</v>
